--- a/raw_data/20200818_saline/20200818_Sensor3_Test_39.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_39.xlsx
@@ -1,1369 +1,1785 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118BF96A-B4B4-46E6-BC7F-76991788EB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>34757.980801</v>
+        <v>34757.980800999998</v>
       </c>
       <c r="B2" s="1">
-        <v>9.654995</v>
+        <v>9.6549949999999995</v>
       </c>
       <c r="C2" s="1">
-        <v>1153.110000</v>
+        <v>1153.1099999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-260.323000</v>
+        <v>-260.32299999999998</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>34768.419109</v>
+        <v>34768.419109000002</v>
       </c>
       <c r="G2" s="1">
-        <v>9.657894</v>
+        <v>9.6578940000000006</v>
       </c>
       <c r="H2" s="1">
-        <v>1174.880000</v>
+        <v>1174.8800000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-218.639000</v>
+        <v>-218.63900000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>34779.258181</v>
+        <v>34779.258180999997</v>
       </c>
       <c r="L2" s="1">
-        <v>9.660905</v>
+        <v>9.6609049999999996</v>
       </c>
       <c r="M2" s="1">
-        <v>1202.080000</v>
+        <v>1202.08</v>
       </c>
       <c r="N2" s="1">
-        <v>-151.523000</v>
+        <v>-151.523</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>34789.770887</v>
+        <v>34789.770886999999</v>
       </c>
       <c r="Q2" s="1">
-        <v>9.663825</v>
+        <v>9.6638249999999992</v>
       </c>
       <c r="R2" s="1">
-        <v>1209.870000</v>
+        <v>1209.8699999999999</v>
       </c>
       <c r="S2" s="1">
-        <v>-129.218000</v>
+        <v>-129.21799999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>34800.690345</v>
+        <v>34800.690345000003</v>
       </c>
       <c r="V2" s="1">
-        <v>9.666858</v>
+        <v>9.6668579999999995</v>
       </c>
       <c r="W2" s="1">
-        <v>1217.040000</v>
+        <v>1217.04</v>
       </c>
       <c r="X2" s="1">
-        <v>-108.088000</v>
+        <v>-108.08799999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>34811.147964</v>
+        <v>34811.147964000003</v>
       </c>
       <c r="AA2" s="1">
-        <v>9.669763</v>
+        <v>9.6697629999999997</v>
       </c>
       <c r="AB2" s="1">
-        <v>1224.430000</v>
+        <v>1224.43</v>
       </c>
       <c r="AC2" s="1">
-        <v>-90.869100</v>
+        <v>-90.869100000000003</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>34821.730607</v>
+        <v>34821.730606999998</v>
       </c>
       <c r="AF2" s="1">
-        <v>9.672703</v>
+        <v>9.6727030000000003</v>
       </c>
       <c r="AG2" s="1">
-        <v>1229.060000</v>
+        <v>1229.06</v>
       </c>
       <c r="AH2" s="1">
-        <v>-86.349100</v>
+        <v>-86.349100000000007</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>34832.470976</v>
+        <v>34832.470975999997</v>
       </c>
       <c r="AK2" s="1">
-        <v>9.675686</v>
+        <v>9.6756860000000007</v>
       </c>
       <c r="AL2" s="1">
-        <v>1236.110000</v>
+        <v>1236.1099999999999</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.722900</v>
+        <v>-89.722899999999996</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>34842.996577</v>
+        <v>34842.996576999998</v>
       </c>
       <c r="AP2" s="1">
-        <v>9.678610</v>
+        <v>9.6786100000000008</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1243.960000</v>
+        <v>1243.96</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.662000</v>
+        <v>-101.66200000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>34853.982468</v>
+        <v>34853.982468000002</v>
       </c>
       <c r="AU2" s="1">
-        <v>9.681662</v>
+        <v>9.6816619999999993</v>
       </c>
       <c r="AV2" s="1">
-        <v>1253.880000</v>
+        <v>1253.8800000000001</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.107000</v>
+        <v>-121.107</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>34865.077971</v>
+        <v>34865.077970999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>9.684744</v>
+        <v>9.6847440000000002</v>
       </c>
       <c r="BA2" s="1">
-        <v>1262.270000</v>
+        <v>1262.27</v>
       </c>
       <c r="BB2" s="1">
-        <v>-138.664000</v>
+        <v>-138.66399999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>34876.064853</v>
+        <v>34876.064853000003</v>
       </c>
       <c r="BE2" s="1">
-        <v>9.687796</v>
+        <v>9.6877960000000005</v>
       </c>
       <c r="BF2" s="1">
-        <v>1302.070000</v>
+        <v>1302.07</v>
       </c>
       <c r="BG2" s="1">
-        <v>-221.399000</v>
+        <v>-221.399</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>34887.625607</v>
+        <v>34887.625607000002</v>
       </c>
       <c r="BJ2" s="1">
-        <v>9.691007</v>
+        <v>9.6910070000000008</v>
       </c>
       <c r="BK2" s="1">
-        <v>1371.300000</v>
+        <v>1371.3</v>
       </c>
       <c r="BL2" s="1">
-        <v>-359.667000</v>
+        <v>-359.66699999999997</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>34898.803943</v>
+        <v>34898.803942999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>9.694112</v>
+        <v>9.6941120000000005</v>
       </c>
       <c r="BP2" s="1">
-        <v>1485.580000</v>
+        <v>1485.58</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-585.595000</v>
+        <v>-585.59500000000003</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>34909.164912</v>
       </c>
       <c r="BT2" s="1">
-        <v>9.696990</v>
+        <v>9.6969899999999996</v>
       </c>
       <c r="BU2" s="1">
-        <v>1617.660000</v>
+        <v>1617.66</v>
       </c>
       <c r="BV2" s="1">
-        <v>-840.777000</v>
+        <v>-840.77700000000004</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>34919.830843</v>
+        <v>34919.830843000003</v>
       </c>
       <c r="BY2" s="1">
-        <v>9.699953</v>
+        <v>9.6999530000000007</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1770.820000</v>
+        <v>1770.82</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1119.840000</v>
+        <v>-1119.8399999999999</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>34931.023566</v>
+        <v>34931.023566000003</v>
       </c>
       <c r="CD2" s="1">
-        <v>9.703062</v>
+        <v>9.7030619999999992</v>
       </c>
       <c r="CE2" s="1">
-        <v>2194.420000</v>
+        <v>2194.42</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1796.530000</v>
+        <v>-1796.53</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>34758.396449</v>
       </c>
       <c r="B3" s="1">
-        <v>9.655110</v>
+        <v>9.6551100000000005</v>
       </c>
       <c r="C3" s="1">
-        <v>1152.870000</v>
+        <v>1152.8699999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-259.897000</v>
+        <v>-259.89699999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>34768.835749</v>
+        <v>34768.835748999998</v>
       </c>
       <c r="G3" s="1">
-        <v>9.658010</v>
+        <v>9.6580100000000009</v>
       </c>
       <c r="H3" s="1">
-        <v>1174.830000</v>
+        <v>1174.83</v>
       </c>
       <c r="I3" s="1">
-        <v>-217.839000</v>
+        <v>-217.839</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>34779.641590</v>
+        <v>34779.641589999999</v>
       </c>
       <c r="L3" s="1">
-        <v>9.661012</v>
+        <v>9.6610119999999995</v>
       </c>
       <c r="M3" s="1">
-        <v>1201.800000</v>
+        <v>1201.8</v>
       </c>
       <c r="N3" s="1">
-        <v>-151.616000</v>
+        <v>-151.61600000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>34790.158759</v>
+        <v>34790.158758999998</v>
       </c>
       <c r="Q3" s="1">
-        <v>9.663933</v>
+        <v>9.6639330000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1209.790000</v>
+        <v>1209.79</v>
       </c>
       <c r="S3" s="1">
-        <v>-129.232000</v>
+        <v>-129.232</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>34801.071736</v>
+        <v>34801.071735999998</v>
       </c>
       <c r="V3" s="1">
-        <v>9.666964</v>
+        <v>9.6669640000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>1217.020000</v>
+        <v>1217.02</v>
       </c>
       <c r="X3" s="1">
-        <v>-108.166000</v>
+        <v>-108.166</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>34811.883530</v>
+        <v>34811.883529999999</v>
       </c>
       <c r="AA3" s="1">
-        <v>9.669968</v>
+        <v>9.6699680000000008</v>
       </c>
       <c r="AB3" s="1">
-        <v>1224.590000</v>
+        <v>1224.5899999999999</v>
       </c>
       <c r="AC3" s="1">
-        <v>-91.014500</v>
+        <v>-91.014499999999998</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>34822.444381</v>
+        <v>34822.444381000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>9.672901</v>
+        <v>9.6729009999999995</v>
       </c>
       <c r="AG3" s="1">
-        <v>1229.050000</v>
+        <v>1229.05</v>
       </c>
       <c r="AH3" s="1">
-        <v>-86.293900</v>
+        <v>-86.293899999999994</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>34832.814208</v>
+        <v>34832.814208000003</v>
       </c>
       <c r="AK3" s="1">
-        <v>9.675782</v>
+        <v>9.6757819999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1236.100000</v>
+        <v>1236.0999999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.724300</v>
+        <v>-89.724299999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>34843.383001</v>
+        <v>34843.383001000002</v>
       </c>
       <c r="AP3" s="1">
-        <v>9.678718</v>
+        <v>9.6787179999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1243.990000</v>
+        <v>1243.99</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.708000</v>
+        <v>-101.708</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>34854.351490</v>
+        <v>34854.351490000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>9.681764</v>
+        <v>9.6817639999999994</v>
       </c>
       <c r="AV3" s="1">
-        <v>1253.890000</v>
+        <v>1253.8900000000001</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.070000</v>
+        <v>-121.07</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>34865.751574</v>
+        <v>34865.751574000002</v>
       </c>
       <c r="AZ3" s="1">
-        <v>9.684931</v>
+        <v>9.6849310000000006</v>
       </c>
       <c r="BA3" s="1">
-        <v>1262.220000</v>
+        <v>1262.22</v>
       </c>
       <c r="BB3" s="1">
-        <v>-138.682000</v>
+        <v>-138.68199999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>34876.737428</v>
       </c>
       <c r="BE3" s="1">
-        <v>9.687983</v>
+        <v>9.6879829999999991</v>
       </c>
       <c r="BF3" s="1">
-        <v>1302.070000</v>
+        <v>1302.07</v>
       </c>
       <c r="BG3" s="1">
-        <v>-221.410000</v>
+        <v>-221.41</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>34888.080470</v>
+        <v>34888.080470000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>9.691133</v>
+        <v>9.6911330000000007</v>
       </c>
       <c r="BK3" s="1">
-        <v>1371.340000</v>
+        <v>1371.34</v>
       </c>
       <c r="BL3" s="1">
-        <v>-359.653000</v>
+        <v>-359.65300000000002</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>34899.242904</v>
+        <v>34899.242903999999</v>
       </c>
       <c r="BO3" s="1">
-        <v>9.694234</v>
+        <v>9.6942339999999998</v>
       </c>
       <c r="BP3" s="1">
-        <v>1485.560000</v>
+        <v>1485.56</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-585.591000</v>
+        <v>-585.59100000000001</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>34909.621689</v>
       </c>
       <c r="BT3" s="1">
-        <v>9.697117</v>
+        <v>9.6971170000000004</v>
       </c>
       <c r="BU3" s="1">
-        <v>1617.900000</v>
+        <v>1617.9</v>
       </c>
       <c r="BV3" s="1">
-        <v>-840.784000</v>
+        <v>-840.78399999999999</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>34920.316464</v>
+        <v>34920.316464000003</v>
       </c>
       <c r="BY3" s="1">
-        <v>9.700088</v>
+        <v>9.7000879999999992</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1770.910000</v>
+        <v>1770.91</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1119.990000</v>
+        <v>-1119.99</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>34931.617313</v>
+        <v>34931.617313000002</v>
       </c>
       <c r="CD3" s="1">
         <v>9.703227</v>
       </c>
       <c r="CE3" s="1">
-        <v>2192.610000</v>
+        <v>2192.61</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1797.790000</v>
+        <v>-1797.79</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>34758.746128</v>
+        <v>34758.746127999999</v>
       </c>
       <c r="B4" s="1">
-        <v>9.655207</v>
+        <v>9.6552070000000008</v>
       </c>
       <c r="C4" s="1">
-        <v>1152.840000</v>
+        <v>1152.8399999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-260.155000</v>
+        <v>-260.15499999999997</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>34769.178483</v>
+        <v>34769.178483000003</v>
       </c>
       <c r="G4" s="1">
-        <v>9.658105</v>
+        <v>9.6581050000000008</v>
       </c>
       <c r="H4" s="1">
-        <v>1174.770000</v>
+        <v>1174.77</v>
       </c>
       <c r="I4" s="1">
-        <v>-218.308000</v>
+        <v>-218.30799999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>34779.987300</v>
+        <v>34779.987300000001</v>
       </c>
       <c r="L4" s="1">
-        <v>9.661108</v>
+        <v>9.6611080000000005</v>
       </c>
       <c r="M4" s="1">
-        <v>1201.850000</v>
+        <v>1201.8499999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-151.583000</v>
+        <v>-151.583</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>34790.506455</v>
+        <v>34790.506455000002</v>
       </c>
       <c r="Q4" s="1">
-        <v>9.664030</v>
+        <v>9.6640300000000003</v>
       </c>
       <c r="R4" s="1">
-        <v>1209.720000</v>
+        <v>1209.72</v>
       </c>
       <c r="S4" s="1">
-        <v>-129.242000</v>
+        <v>-129.24199999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>34801.764953</v>
+        <v>34801.764952999998</v>
       </c>
       <c r="V4" s="1">
-        <v>9.667157</v>
+        <v>9.6671569999999996</v>
       </c>
       <c r="W4" s="1">
-        <v>1216.960000</v>
+        <v>1216.96</v>
       </c>
       <c r="X4" s="1">
-        <v>-108.158000</v>
+        <v>-108.158</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>34812.236186</v>
+        <v>34812.236186000002</v>
       </c>
       <c r="AA4" s="1">
-        <v>9.670066</v>
+        <v>9.6700660000000003</v>
       </c>
       <c r="AB4" s="1">
-        <v>1224.580000</v>
+        <v>1224.58</v>
       </c>
       <c r="AC4" s="1">
-        <v>-90.900100</v>
+        <v>-90.900099999999995</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>34822.787611</v>
       </c>
       <c r="AF4" s="1">
-        <v>9.672997</v>
+        <v>9.6729970000000005</v>
       </c>
       <c r="AG4" s="1">
-        <v>1229.060000</v>
+        <v>1229.06</v>
       </c>
       <c r="AH4" s="1">
-        <v>-86.361700</v>
+        <v>-86.361699999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>34833.159917</v>
+        <v>34833.159916999997</v>
       </c>
       <c r="AK4" s="1">
-        <v>9.675878</v>
+        <v>9.6758780000000009</v>
       </c>
       <c r="AL4" s="1">
-        <v>1236.060000</v>
+        <v>1236.06</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.708200</v>
+        <v>-89.708200000000005</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>34843.748549</v>
+        <v>34843.748549000004</v>
       </c>
       <c r="AP4" s="1">
-        <v>9.678819</v>
+        <v>9.6788190000000007</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1243.990000</v>
+        <v>1243.99</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.689000</v>
+        <v>-101.68899999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>34855.022081</v>
+        <v>34855.022081000003</v>
       </c>
       <c r="AU4" s="1">
-        <v>9.681951</v>
+        <v>9.6819509999999998</v>
       </c>
       <c r="AV4" s="1">
-        <v>1253.860000</v>
+        <v>1253.8599999999999</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.069000</v>
+        <v>-121.069</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>34866.163218</v>
+        <v>34866.163218000002</v>
       </c>
       <c r="AZ4" s="1">
-        <v>9.685045</v>
+        <v>9.6850450000000006</v>
       </c>
       <c r="BA4" s="1">
-        <v>1262.270000</v>
+        <v>1262.27</v>
       </c>
       <c r="BB4" s="1">
-        <v>-138.676000</v>
+        <v>-138.67599999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>34877.190772</v>
+        <v>34877.190772000002</v>
       </c>
       <c r="BE4" s="1">
-        <v>9.688109</v>
+        <v>9.6881090000000007</v>
       </c>
       <c r="BF4" s="1">
-        <v>1302.080000</v>
+        <v>1302.08</v>
       </c>
       <c r="BG4" s="1">
-        <v>-221.401000</v>
+        <v>-221.40100000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>34888.477735</v>
       </c>
       <c r="BJ4" s="1">
-        <v>9.691244</v>
+        <v>9.6912439999999993</v>
       </c>
       <c r="BK4" s="1">
-        <v>1371.310000</v>
+        <v>1371.31</v>
       </c>
       <c r="BL4" s="1">
-        <v>-359.692000</v>
+        <v>-359.69200000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>34899.639486</v>
       </c>
       <c r="BO4" s="1">
-        <v>9.694344</v>
+        <v>9.6943439999999992</v>
       </c>
       <c r="BP4" s="1">
-        <v>1485.540000</v>
+        <v>1485.54</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-585.603000</v>
+        <v>-585.60299999999995</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>34910.035848</v>
       </c>
       <c r="BT4" s="1">
-        <v>9.697232</v>
+        <v>9.6972319999999996</v>
       </c>
       <c r="BU4" s="1">
-        <v>1618.040000</v>
+        <v>1618.04</v>
       </c>
       <c r="BV4" s="1">
-        <v>-840.918000</v>
+        <v>-840.91800000000001</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>34920.766794</v>
+        <v>34920.766794000003</v>
       </c>
       <c r="BY4" s="1">
-        <v>9.700213</v>
+        <v>9.7002129999999998</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1771.190000</v>
+        <v>1771.19</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1120.060000</v>
+        <v>-1120.06</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>34932.158443</v>
       </c>
       <c r="CD4" s="1">
-        <v>9.703377</v>
+        <v>9.7033769999999997</v>
       </c>
       <c r="CE4" s="1">
-        <v>2194.580000</v>
+        <v>2194.58</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1797.800000</v>
+        <v>-1797.8</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>34759.085420</v>
+        <v>34759.085420000003</v>
       </c>
       <c r="B5" s="1">
-        <v>9.655302</v>
+        <v>9.6553020000000007</v>
       </c>
       <c r="C5" s="1">
-        <v>1152.840000</v>
+        <v>1152.8399999999999</v>
       </c>
       <c r="D5" s="1">
-        <v>-260.315000</v>
+        <v>-260.315</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>34769.521754</v>
+        <v>34769.521754000001</v>
       </c>
       <c r="G5" s="1">
-        <v>9.658200</v>
+        <v>9.6582000000000008</v>
       </c>
       <c r="H5" s="1">
-        <v>1175.330000</v>
+        <v>1175.33</v>
       </c>
       <c r="I5" s="1">
-        <v>-218.514000</v>
+        <v>-218.51400000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>34780.675780</v>
+        <v>34780.675779999998</v>
       </c>
       <c r="L5" s="1">
-        <v>9.661299</v>
+        <v>9.6612989999999996</v>
       </c>
       <c r="M5" s="1">
-        <v>1201.920000</v>
+        <v>1201.92</v>
       </c>
       <c r="N5" s="1">
-        <v>-151.616000</v>
+        <v>-151.61600000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>34791.206807</v>
+        <v>34791.206807000002</v>
       </c>
       <c r="Q5" s="1">
-        <v>9.664224</v>
+        <v>9.6642240000000008</v>
       </c>
       <c r="R5" s="1">
-        <v>1209.780000</v>
+        <v>1209.78</v>
       </c>
       <c r="S5" s="1">
-        <v>-129.226000</v>
+        <v>-129.226</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>34802.105895</v>
+        <v>34802.105895000001</v>
       </c>
       <c r="V5" s="1">
-        <v>9.667252</v>
+        <v>9.6672519999999995</v>
       </c>
       <c r="W5" s="1">
-        <v>1216.960000</v>
+        <v>1216.96</v>
       </c>
       <c r="X5" s="1">
-        <v>-108.165000</v>
+        <v>-108.16500000000001</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>34812.582393</v>
+        <v>34812.582392999997</v>
       </c>
       <c r="AA5" s="1">
-        <v>9.670162</v>
+        <v>9.6701619999999995</v>
       </c>
       <c r="AB5" s="1">
-        <v>1224.430000</v>
+        <v>1224.43</v>
       </c>
       <c r="AC5" s="1">
-        <v>-90.860400</v>
+        <v>-90.860399999999998</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>34823.128364</v>
+        <v>34823.128363999997</v>
       </c>
       <c r="AF5" s="1">
-        <v>9.673091</v>
+        <v>9.6730909999999994</v>
       </c>
       <c r="AG5" s="1">
-        <v>1229.050000</v>
+        <v>1229.05</v>
       </c>
       <c r="AH5" s="1">
-        <v>-86.420900</v>
+        <v>-86.420900000000003</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>34833.816126</v>
+        <v>34833.816125999998</v>
       </c>
       <c r="AK5" s="1">
-        <v>9.676060</v>
+        <v>9.6760599999999997</v>
       </c>
       <c r="AL5" s="1">
-        <v>1236.100000</v>
+        <v>1236.0999999999999</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.736900</v>
+        <v>-89.736900000000006</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>34844.393807</v>
@@ -1372,2054 +1788,2054 @@
         <v>9.678998</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1243.980000</v>
+        <v>1243.98</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.673000</v>
+        <v>-101.673</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>34855.474433</v>
+        <v>34855.474433000003</v>
       </c>
       <c r="AU5" s="1">
-        <v>9.682076</v>
+        <v>9.6820760000000003</v>
       </c>
       <c r="AV5" s="1">
-        <v>1253.880000</v>
+        <v>1253.8800000000001</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.085000</v>
+        <v>-121.08499999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>34866.552082</v>
+        <v>34866.552082000002</v>
       </c>
       <c r="AZ5" s="1">
-        <v>9.685153</v>
+        <v>9.6851529999999997</v>
       </c>
       <c r="BA5" s="1">
-        <v>1262.270000</v>
+        <v>1262.27</v>
       </c>
       <c r="BB5" s="1">
-        <v>-138.716000</v>
+        <v>-138.71600000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>34877.529540</v>
+        <v>34877.529540000003</v>
       </c>
       <c r="BE5" s="1">
-        <v>9.688203</v>
+        <v>9.6882029999999997</v>
       </c>
       <c r="BF5" s="1">
-        <v>1302.080000</v>
+        <v>1302.08</v>
       </c>
       <c r="BG5" s="1">
-        <v>-221.413000</v>
+        <v>-221.41300000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>34888.855222</v>
+        <v>34888.855221999998</v>
       </c>
       <c r="BJ5" s="1">
-        <v>9.691349</v>
+        <v>9.6913490000000007</v>
       </c>
       <c r="BK5" s="1">
-        <v>1371.320000</v>
+        <v>1371.32</v>
       </c>
       <c r="BL5" s="1">
-        <v>-359.654000</v>
+        <v>-359.654</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>34900.062789</v>
+        <v>34900.062789000003</v>
       </c>
       <c r="BO5" s="1">
-        <v>9.694462</v>
+        <v>9.6944619999999997</v>
       </c>
       <c r="BP5" s="1">
-        <v>1485.630000</v>
+        <v>1485.63</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-585.621000</v>
+        <v>-585.62099999999998</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>34910.456952</v>
       </c>
       <c r="BT5" s="1">
-        <v>9.697349</v>
+        <v>9.6973490000000009</v>
       </c>
       <c r="BU5" s="1">
-        <v>1618.150000</v>
+        <v>1618.15</v>
       </c>
       <c r="BV5" s="1">
-        <v>-840.885000</v>
+        <v>-840.88499999999999</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>34921.222618</v>
       </c>
       <c r="BY5" s="1">
-        <v>9.700340</v>
+        <v>9.7003400000000006</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1770.880000</v>
+        <v>1770.88</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1120.060000</v>
+        <v>-1120.06</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>34932.700044</v>
+        <v>34932.700043999997</v>
       </c>
       <c r="CD5" s="1">
-        <v>9.703528</v>
+        <v>9.7035280000000004</v>
       </c>
       <c r="CE5" s="1">
-        <v>2192.790000</v>
+        <v>2192.79</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1796.420000</v>
+        <v>-1796.42</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>34759.456897</v>
+        <v>34759.456896999996</v>
       </c>
       <c r="B6" s="1">
         <v>9.655405</v>
       </c>
       <c r="C6" s="1">
-        <v>1152.890000</v>
+        <v>1152.8900000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-260.254000</v>
+        <v>-260.25400000000002</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>34770.216610</v>
+        <v>34770.216610000003</v>
       </c>
       <c r="G6" s="1">
-        <v>9.658394</v>
+        <v>9.6583939999999995</v>
       </c>
       <c r="H6" s="1">
-        <v>1174.880000</v>
+        <v>1174.8800000000001</v>
       </c>
       <c r="I6" s="1">
-        <v>-217.981000</v>
+        <v>-217.98099999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>34781.023939</v>
+        <v>34781.023938999999</v>
       </c>
       <c r="L6" s="1">
-        <v>9.661396</v>
+        <v>9.6613959999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1202.150000</v>
+        <v>1202.1500000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-151.600000</v>
+        <v>-151.6</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>34791.552021</v>
+        <v>34791.552021000003</v>
       </c>
       <c r="Q6" s="1">
-        <v>9.664320</v>
+        <v>9.66432</v>
       </c>
       <c r="R6" s="1">
-        <v>1209.810000</v>
+        <v>1209.81</v>
       </c>
       <c r="S6" s="1">
-        <v>-129.186000</v>
+        <v>-129.18600000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>34802.445185</v>
+        <v>34802.445184999997</v>
       </c>
       <c r="V6" s="1">
-        <v>9.667346</v>
+        <v>9.6673460000000002</v>
       </c>
       <c r="W6" s="1">
-        <v>1217.040000</v>
+        <v>1217.04</v>
       </c>
       <c r="X6" s="1">
-        <v>-108.135000</v>
+        <v>-108.13500000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>34813.243065</v>
+        <v>34813.243065000002</v>
       </c>
       <c r="AA6" s="1">
-        <v>9.670345</v>
+        <v>9.6703449999999993</v>
       </c>
       <c r="AB6" s="1">
-        <v>1224.610000</v>
+        <v>1224.6099999999999</v>
       </c>
       <c r="AC6" s="1">
-        <v>-90.742900</v>
+        <v>-90.742900000000006</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>34823.780570</v>
+        <v>34823.780570000003</v>
       </c>
       <c r="AF6" s="1">
-        <v>9.673272</v>
+        <v>9.6732720000000008</v>
       </c>
       <c r="AG6" s="1">
-        <v>1229.080000</v>
+        <v>1229.08</v>
       </c>
       <c r="AH6" s="1">
-        <v>-86.365300</v>
+        <v>-86.365300000000005</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>34834.206477</v>
       </c>
       <c r="AK6" s="1">
-        <v>9.676168</v>
+        <v>9.6761680000000005</v>
       </c>
       <c r="AL6" s="1">
-        <v>1236.040000</v>
+        <v>1236.04</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.683800</v>
+        <v>-89.683800000000005</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>34844.831776</v>
+        <v>34844.831775999999</v>
       </c>
       <c r="AP6" s="1">
-        <v>9.679120</v>
+        <v>9.6791199999999993</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1243.960000</v>
+        <v>1243.96</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.676000</v>
+        <v>-101.676</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>34855.838993</v>
+        <v>34855.838992999998</v>
       </c>
       <c r="AU6" s="1">
-        <v>9.682177</v>
+        <v>9.6821769999999994</v>
       </c>
       <c r="AV6" s="1">
-        <v>1253.890000</v>
+        <v>1253.8900000000001</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.062000</v>
+        <v>-121.062</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>34866.929041</v>
+        <v>34866.929041000003</v>
       </c>
       <c r="AZ6" s="1">
-        <v>9.685258</v>
+        <v>9.6852579999999993</v>
       </c>
       <c r="BA6" s="1">
-        <v>1262.250000</v>
+        <v>1262.25</v>
       </c>
       <c r="BB6" s="1">
-        <v>-138.683000</v>
+        <v>-138.68299999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>34877.944729</v>
+        <v>34877.944729000003</v>
       </c>
       <c r="BE6" s="1">
-        <v>9.688318</v>
+        <v>9.6883180000000007</v>
       </c>
       <c r="BF6" s="1">
-        <v>1302.070000</v>
+        <v>1302.07</v>
       </c>
       <c r="BG6" s="1">
-        <v>-221.389000</v>
+        <v>-221.38900000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>34889.278773</v>
+        <v>34889.278772999998</v>
       </c>
       <c r="BJ6" s="1">
-        <v>9.691466</v>
+        <v>9.6914660000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1371.350000</v>
+        <v>1371.35</v>
       </c>
       <c r="BL6" s="1">
-        <v>-359.669000</v>
+        <v>-359.66899999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>34900.459094</v>
+        <v>34900.459093999998</v>
       </c>
       <c r="BO6" s="1">
-        <v>9.694572</v>
+        <v>9.6945720000000009</v>
       </c>
       <c r="BP6" s="1">
-        <v>1485.540000</v>
+        <v>1485.54</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-585.623000</v>
+        <v>-585.62300000000005</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>34910.873593</v>
+        <v>34910.873592999997</v>
       </c>
       <c r="BT6" s="1">
-        <v>9.697465</v>
+        <v>9.6974649999999993</v>
       </c>
       <c r="BU6" s="1">
-        <v>1618.330000</v>
+        <v>1618.33</v>
       </c>
       <c r="BV6" s="1">
-        <v>-841.059000</v>
+        <v>-841.05899999999997</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>34921.673513</v>
+        <v>34921.673513000002</v>
       </c>
       <c r="BY6" s="1">
-        <v>9.700465</v>
+        <v>9.7004649999999994</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1771.120000</v>
+        <v>1771.12</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1120.040000</v>
+        <v>-1120.04</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>34933.240218</v>
+        <v>34933.240217999999</v>
       </c>
       <c r="CD6" s="1">
         <v>9.703678</v>
       </c>
       <c r="CE6" s="1">
-        <v>2193.300000</v>
+        <v>2193.3000000000002</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1799.190000</v>
+        <v>-1799.19</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>34760.129470</v>
+        <v>34760.12947</v>
       </c>
       <c r="B7" s="1">
-        <v>9.655592</v>
+        <v>9.6555920000000004</v>
       </c>
       <c r="C7" s="1">
-        <v>1152.900000</v>
+        <v>1152.9000000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>-260.337000</v>
+        <v>-260.33699999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>34770.558849</v>
+        <v>34770.558849000001</v>
       </c>
       <c r="G7" s="1">
-        <v>9.658489</v>
+        <v>9.6584889999999994</v>
       </c>
       <c r="H7" s="1">
-        <v>1174.250000</v>
+        <v>1174.25</v>
       </c>
       <c r="I7" s="1">
-        <v>-217.895000</v>
+        <v>-217.89500000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>34781.366180</v>
+        <v>34781.366179999997</v>
       </c>
       <c r="L7" s="1">
-        <v>9.661491</v>
+        <v>9.6614909999999998</v>
       </c>
       <c r="M7" s="1">
-        <v>1201.920000</v>
+        <v>1201.92</v>
       </c>
       <c r="N7" s="1">
-        <v>-151.453000</v>
+        <v>-151.453</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>34791.899318</v>
+        <v>34791.899318000003</v>
       </c>
       <c r="Q7" s="1">
-        <v>9.664416</v>
+        <v>9.6644159999999992</v>
       </c>
       <c r="R7" s="1">
-        <v>1209.830000</v>
+        <v>1209.83</v>
       </c>
       <c r="S7" s="1">
-        <v>-129.213000</v>
+        <v>-129.21299999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>34803.098185</v>
+        <v>34803.098185000003</v>
       </c>
       <c r="V7" s="1">
-        <v>9.667527</v>
+        <v>9.6675269999999998</v>
       </c>
       <c r="W7" s="1">
-        <v>1217.040000</v>
+        <v>1217.04</v>
       </c>
       <c r="X7" s="1">
-        <v>-108.283000</v>
+        <v>-108.283</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>34813.626503</v>
       </c>
       <c r="AA7" s="1">
-        <v>9.670452</v>
+        <v>9.6704519999999992</v>
       </c>
       <c r="AB7" s="1">
-        <v>1224.590000</v>
+        <v>1224.5899999999999</v>
       </c>
       <c r="AC7" s="1">
-        <v>-90.938000</v>
+        <v>-90.938000000000002</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>34824.160011</v>
       </c>
       <c r="AF7" s="1">
-        <v>9.673378</v>
+        <v>9.6733779999999996</v>
       </c>
       <c r="AG7" s="1">
-        <v>1229.100000</v>
+        <v>1229.0999999999999</v>
       </c>
       <c r="AH7" s="1">
-        <v>-86.366600</v>
+        <v>-86.366600000000005</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>34834.555196</v>
+        <v>34834.555196000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>9.676265</v>
+        <v>9.6762650000000008</v>
       </c>
       <c r="AL7" s="1">
-        <v>1236.040000</v>
+        <v>1236.04</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.721900</v>
+        <v>-89.721900000000005</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>34845.211059</v>
+        <v>34845.211059000001</v>
       </c>
       <c r="AP7" s="1">
-        <v>9.679225</v>
+        <v>9.6792250000000006</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1243.990000</v>
+        <v>1243.99</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.694000</v>
+        <v>-101.694</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>34856.205567</v>
+        <v>34856.205566999997</v>
       </c>
       <c r="AU7" s="1">
-        <v>9.682279</v>
+        <v>9.6822789999999994</v>
       </c>
       <c r="AV7" s="1">
-        <v>1253.860000</v>
+        <v>1253.8599999999999</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.085000</v>
+        <v>-121.08499999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>34867.344224</v>
       </c>
       <c r="AZ7" s="1">
-        <v>9.685373</v>
+        <v>9.6853730000000002</v>
       </c>
       <c r="BA7" s="1">
-        <v>1262.270000</v>
+        <v>1262.27</v>
       </c>
       <c r="BB7" s="1">
-        <v>-138.701000</v>
+        <v>-138.70099999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>34878.284979</v>
+        <v>34878.284978999996</v>
       </c>
       <c r="BE7" s="1">
-        <v>9.688412</v>
+        <v>9.6884119999999996</v>
       </c>
       <c r="BF7" s="1">
-        <v>1302.090000</v>
+        <v>1302.0899999999999</v>
       </c>
       <c r="BG7" s="1">
-        <v>-221.400000</v>
+        <v>-221.4</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>34889.616053</v>
+        <v>34889.616052999998</v>
       </c>
       <c r="BJ7" s="1">
-        <v>9.691560</v>
+        <v>9.6915600000000008</v>
       </c>
       <c r="BK7" s="1">
-        <v>1371.290000</v>
+        <v>1371.29</v>
       </c>
       <c r="BL7" s="1">
-        <v>-359.665000</v>
+        <v>-359.66500000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>34900.881189</v>
       </c>
       <c r="BO7" s="1">
-        <v>9.694689</v>
+        <v>9.6946890000000003</v>
       </c>
       <c r="BP7" s="1">
-        <v>1485.550000</v>
+        <v>1485.55</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-585.580000</v>
+        <v>-585.58000000000004</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>34911.288604</v>
+        <v>34911.288604000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>9.697580</v>
+        <v>9.6975800000000003</v>
       </c>
       <c r="BU7" s="1">
-        <v>1618.380000</v>
+        <v>1618.38</v>
       </c>
       <c r="BV7" s="1">
-        <v>-841.222000</v>
+        <v>-841.22199999999998</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>34922.121897</v>
+        <v>34922.121896999997</v>
       </c>
       <c r="BY7" s="1">
-        <v>9.700589</v>
+        <v>9.7005890000000008</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1770.900000</v>
+        <v>1770.9</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1119.970000</v>
+        <v>-1119.97</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>34933.777890</v>
+        <v>34933.777889999998</v>
       </c>
       <c r="CD7" s="1">
-        <v>9.703827</v>
+        <v>9.7038270000000004</v>
       </c>
       <c r="CE7" s="1">
-        <v>2194.060000</v>
+        <v>2194.06</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1796.000000</v>
+        <v>-1796</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>34760.471711</v>
+        <v>34760.471710999998</v>
       </c>
       <c r="B8" s="1">
-        <v>9.655687</v>
+        <v>9.6556870000000004</v>
       </c>
       <c r="C8" s="1">
-        <v>1153.240000</v>
+        <v>1153.24</v>
       </c>
       <c r="D8" s="1">
-        <v>-260.385000</v>
+        <v>-260.38499999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>34770.900096</v>
+        <v>34770.900095999998</v>
       </c>
       <c r="G8" s="1">
-        <v>9.658583</v>
+        <v>9.6585830000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>1174.550000</v>
+        <v>1174.55</v>
       </c>
       <c r="I8" s="1">
-        <v>-218.149000</v>
+        <v>-218.149</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>34782.031811</v>
+        <v>34782.031811000001</v>
       </c>
       <c r="L8" s="1">
-        <v>9.661676</v>
+        <v>9.6616759999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1202.060000</v>
+        <v>1202.06</v>
       </c>
       <c r="N8" s="1">
-        <v>-151.708000</v>
+        <v>-151.708</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>34792.569812</v>
+        <v>34792.569812000002</v>
       </c>
       <c r="Q8" s="1">
-        <v>9.664603</v>
+        <v>9.6646029999999996</v>
       </c>
       <c r="R8" s="1">
-        <v>1209.810000</v>
+        <v>1209.81</v>
       </c>
       <c r="S8" s="1">
-        <v>-129.271000</v>
+        <v>-129.27099999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>34803.477829</v>
+        <v>34803.477829000003</v>
       </c>
       <c r="V8" s="1">
-        <v>9.667633</v>
+        <v>9.6676330000000004</v>
       </c>
       <c r="W8" s="1">
-        <v>1216.980000</v>
+        <v>1216.98</v>
       </c>
       <c r="X8" s="1">
-        <v>-108.214000</v>
+        <v>-108.214</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>34813.976187</v>
       </c>
       <c r="AA8" s="1">
-        <v>9.670549</v>
+        <v>9.6705489999999994</v>
       </c>
       <c r="AB8" s="1">
-        <v>1224.640000</v>
+        <v>1224.6400000000001</v>
       </c>
       <c r="AC8" s="1">
-        <v>-90.899700</v>
+        <v>-90.899699999999996</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>34824.502281</v>
+        <v>34824.502281000001</v>
       </c>
       <c r="AF8" s="1">
-        <v>9.673473</v>
+        <v>9.6734729999999995</v>
       </c>
       <c r="AG8" s="1">
-        <v>1229.100000</v>
+        <v>1229.0999999999999</v>
       </c>
       <c r="AH8" s="1">
-        <v>-86.367200</v>
+        <v>-86.367199999999997</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>34834.905341</v>
+        <v>34834.905340999998</v>
       </c>
       <c r="AK8" s="1">
-        <v>9.676363</v>
+        <v>9.6763630000000003</v>
       </c>
       <c r="AL8" s="1">
-        <v>1236.070000</v>
+        <v>1236.07</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.701700</v>
+        <v>-89.701700000000002</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>34845.634335</v>
+        <v>34845.634335000002</v>
       </c>
       <c r="AP8" s="1">
-        <v>9.679343</v>
+        <v>9.6793429999999994</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1243.980000</v>
+        <v>1243.98</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.654000</v>
+        <v>-101.654</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>34856.628624</v>
+        <v>34856.628623999997</v>
       </c>
       <c r="AU8" s="1">
-        <v>9.682397</v>
+        <v>9.6823969999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1253.900000</v>
+        <v>1253.9000000000001</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.053000</v>
+        <v>-121.053</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>34867.646291</v>
+        <v>34867.646290999997</v>
       </c>
       <c r="AZ8" s="1">
-        <v>9.685457</v>
+        <v>9.6854569999999995</v>
       </c>
       <c r="BA8" s="1">
-        <v>1262.250000</v>
+        <v>1262.25</v>
       </c>
       <c r="BB8" s="1">
-        <v>-138.695000</v>
+        <v>-138.69499999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>34878.644578</v>
+        <v>34878.644577999999</v>
       </c>
       <c r="BE8" s="1">
-        <v>9.688512</v>
+        <v>9.6885119999999993</v>
       </c>
       <c r="BF8" s="1">
-        <v>1302.100000</v>
+        <v>1302.0999999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-221.390000</v>
+        <v>-221.39</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>34890.001940</v>
+        <v>34890.001940000002</v>
       </c>
       <c r="BJ8" s="1">
-        <v>9.691667</v>
+        <v>9.6916670000000007</v>
       </c>
       <c r="BK8" s="1">
-        <v>1371.350000</v>
+        <v>1371.35</v>
       </c>
       <c r="BL8" s="1">
-        <v>-359.659000</v>
+        <v>-359.65899999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>34901.278484</v>
+        <v>34901.278484000002</v>
       </c>
       <c r="BO8" s="1">
-        <v>9.694800</v>
+        <v>9.6948000000000008</v>
       </c>
       <c r="BP8" s="1">
-        <v>1485.530000</v>
+        <v>1485.53</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-585.628000</v>
+        <v>-585.62800000000004</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>34911.710839</v>
+        <v>34911.710838999999</v>
       </c>
       <c r="BT8" s="1">
-        <v>9.697697</v>
+        <v>9.6976969999999998</v>
       </c>
       <c r="BU8" s="1">
-        <v>1618.410000</v>
+        <v>1618.41</v>
       </c>
       <c r="BV8" s="1">
-        <v>-841.343000</v>
+        <v>-841.34299999999996</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>34922.542473</v>
+        <v>34922.542473000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>9.700706</v>
+        <v>9.7007060000000003</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1771.140000</v>
+        <v>1771.14</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1120.070000</v>
+        <v>-1120.07</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>34934.317000</v>
+        <v>34934.317000000003</v>
       </c>
       <c r="CD8" s="1">
-        <v>9.703977</v>
+        <v>9.7039770000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>2191.900000</v>
+        <v>2191.9</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1797.860000</v>
+        <v>-1797.86</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>34761.132419</v>
+        <v>34761.132419000001</v>
       </c>
       <c r="B9" s="1">
-        <v>9.655870</v>
+        <v>9.6558700000000002</v>
       </c>
       <c r="C9" s="1">
-        <v>1152.950000</v>
+        <v>1152.95</v>
       </c>
       <c r="D9" s="1">
-        <v>-260.303000</v>
+        <v>-260.303</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>34771.565727</v>
+        <v>34771.565727000001</v>
       </c>
       <c r="G9" s="1">
-        <v>9.658768</v>
+        <v>9.6587680000000002</v>
       </c>
       <c r="H9" s="1">
-        <v>1174.480000</v>
+        <v>1174.48</v>
       </c>
       <c r="I9" s="1">
-        <v>-218.644000</v>
+        <v>-218.64400000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>34782.406291</v>
+        <v>34782.406290999999</v>
       </c>
       <c r="L9" s="1">
-        <v>9.661780</v>
+        <v>9.6617800000000003</v>
       </c>
       <c r="M9" s="1">
-        <v>1202.300000</v>
+        <v>1202.3</v>
       </c>
       <c r="N9" s="1">
-        <v>-151.382000</v>
+        <v>-151.38200000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>34792.944788</v>
+        <v>34792.944788000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>9.664707</v>
+        <v>9.6647069999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>1209.740000</v>
+        <v>1209.74</v>
       </c>
       <c r="S9" s="1">
-        <v>-129.221000</v>
+        <v>-129.221</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>34803.821097</v>
       </c>
       <c r="V9" s="1">
-        <v>9.667728</v>
+        <v>9.6677280000000003</v>
       </c>
       <c r="W9" s="1">
-        <v>1217.170000</v>
+        <v>1217.17</v>
       </c>
       <c r="X9" s="1">
-        <v>-108.146000</v>
+        <v>-108.146</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>34814.325366</v>
+        <v>34814.325365999997</v>
       </c>
       <c r="AA9" s="1">
-        <v>9.670646</v>
+        <v>9.6706459999999996</v>
       </c>
       <c r="AB9" s="1">
-        <v>1224.490000</v>
+        <v>1224.49</v>
       </c>
       <c r="AC9" s="1">
-        <v>-90.834100</v>
+        <v>-90.834100000000007</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>34824.848955</v>
+        <v>34824.848955000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>9.673569</v>
+        <v>9.6735690000000005</v>
       </c>
       <c r="AG9" s="1">
-        <v>1229.090000</v>
+        <v>1229.0899999999999</v>
       </c>
       <c r="AH9" s="1">
-        <v>-86.355200</v>
+        <v>-86.355199999999996</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>34835.325980</v>
+        <v>34835.325980000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>9.676479</v>
+        <v>9.6764790000000005</v>
       </c>
       <c r="AL9" s="1">
-        <v>1236.030000</v>
+        <v>1236.03</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.719200</v>
+        <v>-89.719200000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>34845.934382</v>
+        <v>34845.934381999999</v>
       </c>
       <c r="AP9" s="1">
-        <v>9.679426</v>
+        <v>9.6794259999999994</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1243.970000</v>
+        <v>1243.97</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.679000</v>
+        <v>-101.679</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>34856.935152</v>
+        <v>34856.935151999998</v>
       </c>
       <c r="AU9" s="1">
-        <v>9.682482</v>
+        <v>9.6824820000000003</v>
       </c>
       <c r="AV9" s="1">
-        <v>1253.880000</v>
+        <v>1253.8800000000001</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.083000</v>
+        <v>-121.083</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>34868.005885</v>
+        <v>34868.005884999999</v>
       </c>
       <c r="AZ9" s="1">
-        <v>9.685557</v>
+        <v>9.6855569999999993</v>
       </c>
       <c r="BA9" s="1">
-        <v>1262.240000</v>
+        <v>1262.24</v>
       </c>
       <c r="BB9" s="1">
-        <v>-138.700000</v>
+        <v>-138.69999999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>34879.008612</v>
+        <v>34879.008611999998</v>
       </c>
       <c r="BE9" s="1">
-        <v>9.688614</v>
+        <v>9.6886139999999994</v>
       </c>
       <c r="BF9" s="1">
-        <v>1302.070000</v>
+        <v>1302.07</v>
       </c>
       <c r="BG9" s="1">
-        <v>-221.400000</v>
+        <v>-221.4</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>34890.382866</v>
       </c>
       <c r="BJ9" s="1">
-        <v>9.691773</v>
+        <v>9.6917729999999995</v>
       </c>
       <c r="BK9" s="1">
-        <v>1371.340000</v>
+        <v>1371.34</v>
       </c>
       <c r="BL9" s="1">
-        <v>-359.664000</v>
+        <v>-359.66399999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>34901.696611</v>
+        <v>34901.696610999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>9.694916</v>
+        <v>9.6949159999999992</v>
       </c>
       <c r="BP9" s="1">
-        <v>1485.540000</v>
+        <v>1485.54</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-585.632000</v>
+        <v>-585.63199999999995</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>34912.115077</v>
+        <v>34912.115077000002</v>
       </c>
       <c r="BT9" s="1">
-        <v>9.697810</v>
+        <v>9.6978100000000005</v>
       </c>
       <c r="BU9" s="1">
-        <v>1618.390000</v>
+        <v>1618.39</v>
       </c>
       <c r="BV9" s="1">
-        <v>-841.549000</v>
+        <v>-841.54899999999998</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>34922.964071</v>
+        <v>34922.964071000002</v>
       </c>
       <c r="BY9" s="1">
-        <v>9.700823</v>
+        <v>9.7008229999999998</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1770.960000</v>
+        <v>1770.96</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1120.230000</v>
+        <v>-1120.23</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>34934.861143</v>
+        <v>34934.861143000002</v>
       </c>
       <c r="CD9" s="1">
-        <v>9.704128</v>
+        <v>9.7041280000000008</v>
       </c>
       <c r="CE9" s="1">
-        <v>2194.540000</v>
+        <v>2194.54</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1798.610000</v>
+        <v>-1798.61</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>34761.502894</v>
+        <v>34761.502893999997</v>
       </c>
       <c r="B10" s="1">
-        <v>9.655973</v>
+        <v>9.6559729999999995</v>
       </c>
       <c r="C10" s="1">
-        <v>1153.020000</v>
+        <v>1153.02</v>
       </c>
       <c r="D10" s="1">
-        <v>-260.489000</v>
+        <v>-260.48899999999998</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>34771.941696</v>
+        <v>34771.941696000002</v>
       </c>
       <c r="G10" s="1">
-        <v>9.658873</v>
+        <v>9.6588729999999998</v>
       </c>
       <c r="H10" s="1">
-        <v>1174.280000</v>
+        <v>1174.28</v>
       </c>
       <c r="I10" s="1">
-        <v>-217.854000</v>
+        <v>-217.85400000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>34782.753986</v>
+        <v>34782.753986000003</v>
       </c>
       <c r="L10" s="1">
-        <v>9.661876</v>
+        <v>9.6618759999999995</v>
       </c>
       <c r="M10" s="1">
-        <v>1202.230000</v>
+        <v>1202.23</v>
       </c>
       <c r="N10" s="1">
-        <v>-151.572000</v>
+        <v>-151.572</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>34793.452196</v>
+        <v>34793.452195999998</v>
       </c>
       <c r="Q10" s="1">
-        <v>9.664848</v>
+        <v>9.6648479999999992</v>
       </c>
       <c r="R10" s="1">
-        <v>1209.770000</v>
+        <v>1209.77</v>
       </c>
       <c r="S10" s="1">
-        <v>-129.200000</v>
+        <v>-129.19999999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>34804.165300</v>
+        <v>34804.165300000001</v>
       </c>
       <c r="V10" s="1">
-        <v>9.667824</v>
+        <v>9.6678239999999995</v>
       </c>
       <c r="W10" s="1">
-        <v>1217.080000</v>
+        <v>1217.08</v>
       </c>
       <c r="X10" s="1">
-        <v>-108.149000</v>
+        <v>-108.149</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>34814.755862</v>
+        <v>34814.755861999998</v>
       </c>
       <c r="AA10" s="1">
-        <v>9.670766</v>
+        <v>9.6707660000000004</v>
       </c>
       <c r="AB10" s="1">
-        <v>1224.420000</v>
+        <v>1224.42</v>
       </c>
       <c r="AC10" s="1">
-        <v>-90.819700</v>
+        <v>-90.819699999999997</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>34825.270585</v>
+        <v>34825.270584999998</v>
       </c>
       <c r="AF10" s="1">
         <v>9.673686</v>
       </c>
       <c r="AG10" s="1">
-        <v>1229.080000</v>
+        <v>1229.08</v>
       </c>
       <c r="AH10" s="1">
-        <v>-86.307700</v>
+        <v>-86.307699999999997</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>34835.601227</v>
+        <v>34835.601226999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>9.676556</v>
+        <v>9.6765559999999997</v>
       </c>
       <c r="AL10" s="1">
-        <v>1236.020000</v>
+        <v>1236.02</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.756700</v>
+        <v>-89.756699999999995</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>34846.293485</v>
+        <v>34846.293485000002</v>
       </c>
       <c r="AP10" s="1">
-        <v>9.679526</v>
+        <v>9.6795259999999992</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1243.970000</v>
+        <v>1243.97</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.654000</v>
+        <v>-101.654</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>34857.300207</v>
       </c>
       <c r="AU10" s="1">
-        <v>9.682583</v>
+        <v>9.6825829999999993</v>
       </c>
       <c r="AV10" s="1">
-        <v>1253.870000</v>
+        <v>1253.8699999999999</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.072000</v>
+        <v>-121.072</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>34868.364465</v>
+        <v>34868.364464999999</v>
       </c>
       <c r="AZ10" s="1">
-        <v>9.685657</v>
+        <v>9.6856570000000008</v>
       </c>
       <c r="BA10" s="1">
-        <v>1262.250000</v>
+        <v>1262.25</v>
       </c>
       <c r="BB10" s="1">
-        <v>-138.705000</v>
+        <v>-138.70500000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>34879.727845</v>
+        <v>34879.727845000001</v>
       </c>
       <c r="BE10" s="1">
-        <v>9.688813</v>
+        <v>9.6888129999999997</v>
       </c>
       <c r="BF10" s="1">
-        <v>1302.080000</v>
+        <v>1302.08</v>
       </c>
       <c r="BG10" s="1">
-        <v>-221.374000</v>
+        <v>-221.374</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>34891.130337</v>
+        <v>34891.130337000002</v>
       </c>
       <c r="BJ10" s="1">
-        <v>9.691981</v>
+        <v>9.6919810000000002</v>
       </c>
       <c r="BK10" s="1">
-        <v>1371.300000</v>
+        <v>1371.3</v>
       </c>
       <c r="BL10" s="1">
-        <v>-359.672000</v>
+        <v>-359.67200000000003</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>34902.093907</v>
+        <v>34902.093907000002</v>
       </c>
       <c r="BO10" s="1">
-        <v>9.695026</v>
+        <v>9.6950260000000004</v>
       </c>
       <c r="BP10" s="1">
-        <v>1485.580000</v>
+        <v>1485.58</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-585.633000</v>
+        <v>-585.63300000000004</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>34912.554038</v>
+        <v>34912.554038000002</v>
       </c>
       <c r="BT10" s="1">
-        <v>9.697932</v>
+        <v>9.6979319999999998</v>
       </c>
       <c r="BU10" s="1">
-        <v>1618.270000</v>
+        <v>1618.27</v>
       </c>
       <c r="BV10" s="1">
-        <v>-841.679000</v>
+        <v>-841.67899999999997</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>34923.412952</v>
+        <v>34923.412951999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>9.700948</v>
+        <v>9.7009480000000003</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1770.980000</v>
+        <v>1770.98</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1119.900000</v>
+        <v>-1119.9000000000001</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>34935.700344</v>
+        <v>34935.700343999997</v>
       </c>
       <c r="CD10" s="1">
-        <v>9.704361</v>
+        <v>9.7043610000000005</v>
       </c>
       <c r="CE10" s="1">
-        <v>2192.230000</v>
+        <v>2192.23</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1798.040000</v>
+        <v>-1798.04</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>34761.847153</v>
+        <v>34761.847153000002</v>
       </c>
       <c r="B11" s="1">
-        <v>9.656069</v>
+        <v>9.6560690000000005</v>
       </c>
       <c r="C11" s="1">
-        <v>1152.550000</v>
+        <v>1152.55</v>
       </c>
       <c r="D11" s="1">
-        <v>-259.924000</v>
+        <v>-259.92399999999998</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>34772.284928</v>
+        <v>34772.284928000001</v>
       </c>
       <c r="G11" s="1">
-        <v>9.658968</v>
+        <v>9.6589679999999998</v>
       </c>
       <c r="H11" s="1">
-        <v>1175.190000</v>
+        <v>1175.19</v>
       </c>
       <c r="I11" s="1">
-        <v>-218.380000</v>
+        <v>-218.38</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>34783.098704</v>
+        <v>34783.098704000004</v>
       </c>
       <c r="L11" s="1">
-        <v>9.661972</v>
+        <v>9.6619720000000004</v>
       </c>
       <c r="M11" s="1">
-        <v>1202.130000</v>
+        <v>1202.1300000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-151.537000</v>
+        <v>-151.53700000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>34793.646638</v>
+        <v>34793.646637999998</v>
       </c>
       <c r="Q11" s="1">
-        <v>9.664902</v>
+        <v>9.6649019999999997</v>
       </c>
       <c r="R11" s="1">
-        <v>1209.750000</v>
+        <v>1209.75</v>
       </c>
       <c r="S11" s="1">
-        <v>-129.225000</v>
+        <v>-129.22499999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>34804.596309</v>
       </c>
       <c r="V11" s="1">
-        <v>9.667943</v>
+        <v>9.6679429999999993</v>
       </c>
       <c r="W11" s="1">
-        <v>1217.170000</v>
+        <v>1217.17</v>
       </c>
       <c r="X11" s="1">
-        <v>-108.053000</v>
+        <v>-108.053</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>34815.022215</v>
+        <v>34815.022214999997</v>
       </c>
       <c r="AA11" s="1">
-        <v>9.670840</v>
+        <v>9.6708400000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>1224.530000</v>
+        <v>1224.53</v>
       </c>
       <c r="AC11" s="1">
-        <v>-90.842900</v>
+        <v>-90.8429</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>34825.553801</v>
+        <v>34825.553801000002</v>
       </c>
       <c r="AF11" s="1">
-        <v>9.673765</v>
+        <v>9.6737649999999995</v>
       </c>
       <c r="AG11" s="1">
-        <v>1229.070000</v>
+        <v>1229.07</v>
       </c>
       <c r="AH11" s="1">
-        <v>-86.356900</v>
+        <v>-86.356899999999996</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>34835.951900</v>
+        <v>34835.9519</v>
       </c>
       <c r="AK11" s="1">
-        <v>9.676653</v>
+        <v>9.6766529999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>1236.010000</v>
+        <v>1236.01</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.727000</v>
+        <v>-89.727000000000004</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>34846.655100</v>
+        <v>34846.655100000004</v>
       </c>
       <c r="AP11" s="1">
-        <v>9.679626</v>
+        <v>9.6796260000000007</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1243.950000</v>
+        <v>1243.95</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.666000</v>
+        <v>-101.666</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>34857.662814</v>
+        <v>34857.662814000003</v>
       </c>
       <c r="AU11" s="1">
-        <v>9.682684</v>
+        <v>9.6826840000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1253.870000</v>
+        <v>1253.8699999999999</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.054000</v>
+        <v>-121.054</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>34869.070271</v>
+        <v>34869.070270999997</v>
       </c>
       <c r="AZ11" s="1">
-        <v>9.685853</v>
+        <v>9.6858529999999998</v>
       </c>
       <c r="BA11" s="1">
-        <v>1262.230000</v>
+        <v>1262.23</v>
       </c>
       <c r="BB11" s="1">
-        <v>-138.668000</v>
+        <v>-138.66800000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>34880.092370</v>
+        <v>34880.092369999998</v>
       </c>
       <c r="BE11" s="1">
-        <v>9.688915</v>
+        <v>9.6889149999999997</v>
       </c>
       <c r="BF11" s="1">
-        <v>1302.070000</v>
+        <v>1302.07</v>
       </c>
       <c r="BG11" s="1">
-        <v>-221.377000</v>
+        <v>-221.37700000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>34891.506307</v>
+        <v>34891.506307000003</v>
       </c>
       <c r="BJ11" s="1">
-        <v>9.692085</v>
+        <v>9.6920850000000005</v>
       </c>
       <c r="BK11" s="1">
-        <v>1371.310000</v>
+        <v>1371.31</v>
       </c>
       <c r="BL11" s="1">
-        <v>-359.678000</v>
+        <v>-359.678</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>34902.516502</v>
+        <v>34902.516501999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>9.695143</v>
+        <v>9.6951429999999998</v>
       </c>
       <c r="BP11" s="1">
-        <v>1485.560000</v>
+        <v>1485.56</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-585.672000</v>
+        <v>-585.67200000000003</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>34913.287621</v>
+        <v>34913.287621000003</v>
       </c>
       <c r="BT11" s="1">
-        <v>9.698135</v>
+        <v>9.6981350000000006</v>
       </c>
       <c r="BU11" s="1">
-        <v>1618.300000</v>
+        <v>1618.3</v>
       </c>
       <c r="BV11" s="1">
-        <v>-841.857000</v>
+        <v>-841.85699999999997</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>34924.158966</v>
+        <v>34924.158966000003</v>
       </c>
       <c r="BY11" s="1">
         <v>9.701155</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1770.890000</v>
+        <v>1770.89</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1120.020000</v>
+        <v>-1120.02</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>34935.935455</v>
+        <v>34935.935454999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>9.704427</v>
+        <v>9.7044270000000008</v>
       </c>
       <c r="CE11" s="1">
-        <v>2192.590000</v>
+        <v>2192.59</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1798.420000</v>
+        <v>-1798.42</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>34762.190882</v>
+        <v>34762.190882000003</v>
       </c>
       <c r="B12" s="1">
-        <v>9.656164</v>
+        <v>9.6561640000000004</v>
       </c>
       <c r="C12" s="1">
-        <v>1152.780000</v>
+        <v>1152.78</v>
       </c>
       <c r="D12" s="1">
-        <v>-260.171000</v>
+        <v>-260.17099999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>34772.629649</v>
+        <v>34772.629649000002</v>
       </c>
       <c r="G12" s="1">
-        <v>9.659064</v>
+        <v>9.6590640000000008</v>
       </c>
       <c r="H12" s="1">
-        <v>1174.380000</v>
+        <v>1174.3800000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-218.006000</v>
+        <v>-218.006</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>34783.523281</v>
+        <v>34783.523281000002</v>
       </c>
       <c r="L12" s="1">
-        <v>9.662090</v>
+        <v>9.6620899999999992</v>
       </c>
       <c r="M12" s="1">
-        <v>1202.070000</v>
+        <v>1202.07</v>
       </c>
       <c r="N12" s="1">
-        <v>-151.611000</v>
+        <v>-151.61099999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>34794.342017</v>
+        <v>34794.342017000003</v>
       </c>
       <c r="Q12" s="1">
-        <v>9.665095</v>
+        <v>9.6650950000000009</v>
       </c>
       <c r="R12" s="1">
-        <v>1209.780000</v>
+        <v>1209.78</v>
       </c>
       <c r="S12" s="1">
-        <v>-129.275000</v>
+        <v>-129.27500000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>34804.872613</v>
       </c>
       <c r="V12" s="1">
-        <v>9.668020</v>
+        <v>9.6680200000000003</v>
       </c>
       <c r="W12" s="1">
-        <v>1217.060000</v>
+        <v>1217.06</v>
       </c>
       <c r="X12" s="1">
-        <v>-108.177000</v>
+        <v>-108.17700000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>34815.368948</v>
+        <v>34815.368948000003</v>
       </c>
       <c r="AA12" s="1">
-        <v>9.670936</v>
+        <v>9.6709359999999993</v>
       </c>
       <c r="AB12" s="1">
-        <v>1224.440000</v>
+        <v>1224.44</v>
       </c>
       <c r="AC12" s="1">
-        <v>-91.010900</v>
+        <v>-91.010900000000007</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>34825.902953</v>
+        <v>34825.902952999997</v>
       </c>
       <c r="AF12" s="1">
-        <v>9.673862</v>
+        <v>9.6738619999999997</v>
       </c>
       <c r="AG12" s="1">
-        <v>1229.100000</v>
+        <v>1229.0999999999999</v>
       </c>
       <c r="AH12" s="1">
-        <v>-86.351500</v>
+        <v>-86.351500000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>34836.299099</v>
+        <v>34836.299099000003</v>
       </c>
       <c r="AK12" s="1">
-        <v>9.676750</v>
+        <v>9.6767500000000002</v>
       </c>
       <c r="AL12" s="1">
-        <v>1236.010000</v>
+        <v>1236.01</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.742800</v>
+        <v>-89.742800000000003</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>34847.376764</v>
+        <v>34847.376764000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>9.679827</v>
+        <v>9.6798269999999995</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1244.010000</v>
+        <v>1244.01</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.668000</v>
+        <v>-101.66800000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>34858.399340</v>
+        <v>34858.399340000004</v>
       </c>
       <c r="AU12" s="1">
-        <v>9.682889</v>
+        <v>9.6828889999999994</v>
       </c>
       <c r="AV12" s="1">
-        <v>1253.850000</v>
+        <v>1253.8499999999999</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.082000</v>
+        <v>-121.08199999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>34869.438798</v>
+        <v>34869.438798000003</v>
       </c>
       <c r="AZ12" s="1">
-        <v>9.685955</v>
+        <v>9.6859549999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1262.240000</v>
+        <v>1262.24</v>
       </c>
       <c r="BB12" s="1">
-        <v>-138.727000</v>
+        <v>-138.727</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>34880.451969</v>
+        <v>34880.451969000002</v>
       </c>
       <c r="BE12" s="1">
-        <v>9.689014</v>
+        <v>9.6890140000000002</v>
       </c>
       <c r="BF12" s="1">
-        <v>1302.120000</v>
+        <v>1302.1199999999999</v>
       </c>
       <c r="BG12" s="1">
-        <v>-221.394000</v>
+        <v>-221.39400000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>34891.880288</v>
       </c>
       <c r="BJ12" s="1">
-        <v>9.692189</v>
+        <v>9.6921890000000008</v>
       </c>
       <c r="BK12" s="1">
-        <v>1371.310000</v>
+        <v>1371.31</v>
       </c>
       <c r="BL12" s="1">
-        <v>-359.674000</v>
+        <v>-359.67399999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>34903.221345</v>
+        <v>34903.221344999998</v>
       </c>
       <c r="BO12" s="1">
-        <v>9.695339</v>
+        <v>9.6953390000000006</v>
       </c>
       <c r="BP12" s="1">
-        <v>1485.540000</v>
+        <v>1485.54</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-585.617000</v>
+        <v>-585.61699999999996</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>34913.428484</v>
+        <v>34913.428483999996</v>
       </c>
       <c r="BT12" s="1">
-        <v>9.698175</v>
+        <v>9.6981750000000009</v>
       </c>
       <c r="BU12" s="1">
-        <v>1618.090000</v>
+        <v>1618.09</v>
       </c>
       <c r="BV12" s="1">
-        <v>-841.897000</v>
+        <v>-841.89700000000005</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>34924.277509</v>
       </c>
       <c r="BY12" s="1">
-        <v>9.701188</v>
+        <v>9.7011880000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1771.140000</v>
+        <v>1771.14</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1120.030000</v>
+        <v>-1120.03</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>34936.453767</v>
+        <v>34936.453766999999</v>
       </c>
       <c r="CD12" s="1">
-        <v>9.704570</v>
+        <v>9.7045700000000004</v>
       </c>
       <c r="CE12" s="1">
-        <v>2194.470000</v>
+        <v>2194.4699999999998</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1798.070000</v>
+        <v>-1798.07</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>34762.616438</v>
+        <v>34762.616437999997</v>
       </c>
       <c r="B13" s="1">
-        <v>9.656282</v>
+        <v>9.6562819999999991</v>
       </c>
       <c r="C13" s="1">
-        <v>1153.120000</v>
+        <v>1153.1199999999999</v>
       </c>
       <c r="D13" s="1">
-        <v>-260.211000</v>
+        <v>-260.21100000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>34773.045293</v>
+        <v>34773.045293000003</v>
       </c>
       <c r="G13" s="1">
         <v>9.659179</v>
       </c>
       <c r="H13" s="1">
-        <v>1174.720000</v>
+        <v>1174.72</v>
       </c>
       <c r="I13" s="1">
-        <v>-218.875000</v>
+        <v>-218.875</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>34783.801535</v>
+        <v>34783.801534999999</v>
       </c>
       <c r="L13" s="1">
-        <v>9.662167</v>
+        <v>9.6621670000000002</v>
       </c>
       <c r="M13" s="1">
-        <v>1201.970000</v>
+        <v>1201.97</v>
       </c>
       <c r="N13" s="1">
-        <v>-151.467000</v>
+        <v>-151.46700000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>34794.690242</v>
+        <v>34794.690241999997</v>
       </c>
       <c r="Q13" s="1">
-        <v>9.665192</v>
+        <v>9.6651919999999993</v>
       </c>
       <c r="R13" s="1">
-        <v>1209.850000</v>
+        <v>1209.8499999999999</v>
       </c>
       <c r="S13" s="1">
-        <v>-129.300000</v>
+        <v>-129.30000000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>34805.216835</v>
+        <v>34805.216834999999</v>
       </c>
       <c r="V13" s="1">
-        <v>9.668116</v>
+        <v>9.6681159999999995</v>
       </c>
       <c r="W13" s="1">
-        <v>1217.040000</v>
+        <v>1217.04</v>
       </c>
       <c r="X13" s="1">
-        <v>-108.116000</v>
+        <v>-108.116</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>34815.720118</v>
+        <v>34815.720117999997</v>
       </c>
       <c r="AA13" s="1">
-        <v>9.671033</v>
+        <v>9.6710329999999995</v>
       </c>
       <c r="AB13" s="1">
-        <v>1224.550000</v>
+        <v>1224.55</v>
       </c>
       <c r="AC13" s="1">
-        <v>-90.920100</v>
+        <v>-90.920100000000005</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>34826.246680</v>
+        <v>34826.246679999997</v>
       </c>
       <c r="AF13" s="1">
-        <v>9.673957</v>
+        <v>9.6739569999999997</v>
       </c>
       <c r="AG13" s="1">
-        <v>1229.110000</v>
+        <v>1229.1099999999999</v>
       </c>
       <c r="AH13" s="1">
-        <v>-86.371600</v>
+        <v>-86.371600000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>34836.997499</v>
+        <v>34836.997498999997</v>
       </c>
       <c r="AK13" s="1">
-        <v>9.676944</v>
+        <v>9.6769440000000007</v>
       </c>
       <c r="AL13" s="1">
-        <v>1236.030000</v>
+        <v>1236.03</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.741400</v>
+        <v>-89.741399999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>34847.734891</v>
@@ -3428,3476 +3844,3477 @@
         <v>9.679926</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1243.980000</v>
+        <v>1243.98</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.669000</v>
+        <v>-101.669</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>34858.783772</v>
+        <v>34858.783772000003</v>
       </c>
       <c r="AU13" s="1">
         <v>9.682995</v>
       </c>
       <c r="AV13" s="1">
-        <v>1253.880000</v>
+        <v>1253.8800000000001</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.082000</v>
+        <v>-121.08199999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>34869.798925</v>
+        <v>34869.798925000003</v>
       </c>
       <c r="AZ13" s="1">
-        <v>9.686055</v>
+        <v>9.6860549999999996</v>
       </c>
       <c r="BA13" s="1">
-        <v>1262.260000</v>
+        <v>1262.26</v>
       </c>
       <c r="BB13" s="1">
-        <v>-138.701000</v>
+        <v>-138.70099999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>34881.121603</v>
       </c>
       <c r="BE13" s="1">
-        <v>9.689200</v>
+        <v>9.6891999999999996</v>
       </c>
       <c r="BF13" s="1">
-        <v>1302.070000</v>
+        <v>1302.07</v>
       </c>
       <c r="BG13" s="1">
-        <v>-221.405000</v>
+        <v>-221.405</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>34892.583121</v>
+        <v>34892.583121000003</v>
       </c>
       <c r="BJ13" s="1">
-        <v>9.692384</v>
+        <v>9.6923840000000006</v>
       </c>
       <c r="BK13" s="1">
-        <v>1371.330000</v>
+        <v>1371.33</v>
       </c>
       <c r="BL13" s="1">
-        <v>-359.708000</v>
+        <v>-359.70800000000003</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>34903.332949</v>
+        <v>34903.332949000003</v>
       </c>
       <c r="BO13" s="1">
-        <v>9.695370</v>
+        <v>9.6953700000000005</v>
       </c>
       <c r="BP13" s="1">
-        <v>1485.560000</v>
+        <v>1485.56</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-585.572000</v>
+        <v>-585.572</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>34913.837716</v>
+        <v>34913.837716000002</v>
       </c>
       <c r="BT13" s="1">
-        <v>9.698288</v>
+        <v>9.6982879999999998</v>
       </c>
       <c r="BU13" s="1">
-        <v>1617.850000</v>
+        <v>1617.85</v>
       </c>
       <c r="BV13" s="1">
-        <v>-841.916000</v>
+        <v>-841.91600000000005</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>34924.703046</v>
+        <v>34924.703046000002</v>
       </c>
       <c r="BY13" s="1">
-        <v>9.701306</v>
+        <v>9.7013060000000007</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1771.050000</v>
+        <v>1771.05</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1120.010000</v>
+        <v>-1120.01</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>34936.973602</v>
+        <v>34936.973601999998</v>
       </c>
       <c r="CD13" s="1">
-        <v>9.704715</v>
+        <v>9.7047150000000002</v>
       </c>
       <c r="CE13" s="1">
-        <v>2194.070000</v>
+        <v>2194.0700000000002</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1798.630000</v>
+        <v>-1798.63</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>34762.894700</v>
+        <v>34762.894699999997</v>
       </c>
       <c r="B14" s="1">
-        <v>9.656360</v>
+        <v>9.6563599999999994</v>
       </c>
       <c r="C14" s="1">
-        <v>1152.950000</v>
+        <v>1152.95</v>
       </c>
       <c r="D14" s="1">
-        <v>-260.344000</v>
+        <v>-260.34399999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>34773.325069</v>
+        <v>34773.325068999999</v>
       </c>
       <c r="G14" s="1">
-        <v>9.659257</v>
+        <v>9.6592570000000002</v>
       </c>
       <c r="H14" s="1">
-        <v>1174.640000</v>
+        <v>1174.6400000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-218.305000</v>
+        <v>-218.30500000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>34784.146752</v>
+        <v>34784.146752000001</v>
       </c>
       <c r="L14" s="1">
-        <v>9.662263</v>
+        <v>9.6622629999999994</v>
       </c>
       <c r="M14" s="1">
-        <v>1201.830000</v>
+        <v>1201.83</v>
       </c>
       <c r="N14" s="1">
-        <v>-151.725000</v>
+        <v>-151.72499999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>34795.038896</v>
+        <v>34795.038895999998</v>
       </c>
       <c r="Q14" s="1">
-        <v>9.665289</v>
+        <v>9.6652889999999996</v>
       </c>
       <c r="R14" s="1">
-        <v>1209.800000</v>
+        <v>1209.8</v>
       </c>
       <c r="S14" s="1">
-        <v>-129.266000</v>
+        <v>-129.26599999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>34805.564662</v>
+        <v>34805.564661999997</v>
       </c>
       <c r="V14" s="1">
-        <v>9.668212</v>
+        <v>9.6682120000000005</v>
       </c>
       <c r="W14" s="1">
-        <v>1217.090000</v>
+        <v>1217.0899999999999</v>
       </c>
       <c r="X14" s="1">
-        <v>-108.164000</v>
+        <v>-108.164</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>34816.417991</v>
+        <v>34816.417991000002</v>
       </c>
       <c r="AA14" s="1">
         <v>9.671227</v>
       </c>
       <c r="AB14" s="1">
-        <v>1224.480000</v>
+        <v>1224.48</v>
       </c>
       <c r="AC14" s="1">
-        <v>-90.955400</v>
+        <v>-90.955399999999997</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>34826.929551</v>
+        <v>34826.929551000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>9.674147</v>
+        <v>9.6741469999999996</v>
       </c>
       <c r="AG14" s="1">
-        <v>1229.080000</v>
+        <v>1229.08</v>
       </c>
       <c r="AH14" s="1">
-        <v>-86.333900</v>
+        <v>-86.3339</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>34837.349626</v>
+        <v>34837.349626000003</v>
       </c>
       <c r="AK14" s="1">
-        <v>9.677042</v>
+        <v>9.6770420000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>1236.010000</v>
+        <v>1236.01</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.717700</v>
+        <v>-89.717699999999994</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>34848.095981</v>
+        <v>34848.095980999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>9.680027</v>
+        <v>9.6800270000000008</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1243.980000</v>
+        <v>1243.98</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.634000</v>
+        <v>-101.634</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>34859.147307</v>
+        <v>34859.147306999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>9.683096</v>
+        <v>9.6830960000000008</v>
       </c>
       <c r="AV14" s="1">
-        <v>1253.890000</v>
+        <v>1253.8900000000001</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.085000</v>
+        <v>-121.08499999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>34870.461548</v>
+        <v>34870.461547999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>9.686239</v>
+        <v>9.6862390000000005</v>
       </c>
       <c r="BA14" s="1">
-        <v>1262.280000</v>
+        <v>1262.28</v>
       </c>
       <c r="BB14" s="1">
-        <v>-138.678000</v>
+        <v>-138.678</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>34881.569950</v>
+        <v>34881.569949999997</v>
       </c>
       <c r="BE14" s="1">
-        <v>9.689325</v>
+        <v>9.6893250000000002</v>
       </c>
       <c r="BF14" s="1">
-        <v>1302.090000</v>
+        <v>1302.0899999999999</v>
       </c>
       <c r="BG14" s="1">
-        <v>-221.394000</v>
+        <v>-221.39400000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>34893.007733</v>
+        <v>34893.007732999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>9.692502</v>
+        <v>9.6925019999999993</v>
       </c>
       <c r="BK14" s="1">
-        <v>1371.330000</v>
+        <v>1371.33</v>
       </c>
       <c r="BL14" s="1">
-        <v>-359.693000</v>
+        <v>-359.69299999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>34903.758977</v>
+        <v>34903.758976999998</v>
       </c>
       <c r="BO14" s="1">
-        <v>9.695489</v>
+        <v>9.6954890000000002</v>
       </c>
       <c r="BP14" s="1">
-        <v>1485.510000</v>
+        <v>1485.51</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-585.605000</v>
+        <v>-585.60500000000002</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>34914.267255</v>
+        <v>34914.267254999999</v>
       </c>
       <c r="BT14" s="1">
-        <v>9.698408</v>
+        <v>9.6984080000000006</v>
       </c>
       <c r="BU14" s="1">
-        <v>1617.700000</v>
+        <v>1617.7</v>
       </c>
       <c r="BV14" s="1">
-        <v>-841.887000</v>
+        <v>-841.88699999999994</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>34925.117733</v>
+        <v>34925.117732999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>9.701422</v>
+        <v>9.7014220000000009</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1770.890000</v>
+        <v>1770.89</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1120.090000</v>
+        <v>-1120.0899999999999</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>34937.528100</v>
+        <v>34937.528100000003</v>
       </c>
       <c r="CD14" s="1">
-        <v>9.704869</v>
+        <v>9.7048690000000004</v>
       </c>
       <c r="CE14" s="1">
-        <v>2192.360000</v>
+        <v>2192.36</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1798.390000</v>
+        <v>-1798.39</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>34763.237930</v>
+        <v>34763.237930000003</v>
       </c>
       <c r="B15" s="1">
-        <v>9.656455</v>
+        <v>9.6564549999999993</v>
       </c>
       <c r="C15" s="1">
-        <v>1153.130000</v>
+        <v>1153.1300000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-260.044000</v>
+        <v>-260.04399999999998</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>34773.664300</v>
+        <v>34773.664299999997</v>
       </c>
       <c r="G15" s="1">
-        <v>9.659351</v>
+        <v>9.6593509999999991</v>
       </c>
       <c r="H15" s="1">
-        <v>1174.600000</v>
+        <v>1174.5999999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-218.371000</v>
+        <v>-218.37100000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>34784.492959</v>
+        <v>34784.492959000003</v>
       </c>
       <c r="L15" s="1">
-        <v>9.662359</v>
+        <v>9.6623590000000004</v>
       </c>
       <c r="M15" s="1">
-        <v>1202.160000</v>
+        <v>1202.1600000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-151.459000</v>
+        <v>-151.459</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>34795.736767</v>
+        <v>34795.736767000002</v>
       </c>
       <c r="Q15" s="1">
-        <v>9.665482</v>
+        <v>9.6654820000000008</v>
       </c>
       <c r="R15" s="1">
-        <v>1209.760000</v>
+        <v>1209.76</v>
       </c>
       <c r="S15" s="1">
-        <v>-129.215000</v>
+        <v>-129.215</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>34806.248482</v>
+        <v>34806.248482000003</v>
       </c>
       <c r="V15" s="1">
-        <v>9.668402</v>
+        <v>9.6684020000000004</v>
       </c>
       <c r="W15" s="1">
-        <v>1217.110000</v>
+        <v>1217.1099999999999</v>
       </c>
       <c r="X15" s="1">
-        <v>-108.125000</v>
+        <v>-108.125</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>34816.765683</v>
+        <v>34816.765682999998</v>
       </c>
       <c r="AA15" s="1">
-        <v>9.671324</v>
+        <v>9.6713240000000003</v>
       </c>
       <c r="AB15" s="1">
-        <v>1224.510000</v>
+        <v>1224.51</v>
       </c>
       <c r="AC15" s="1">
-        <v>-90.895500</v>
+        <v>-90.895499999999998</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>34827.272438</v>
       </c>
       <c r="AF15" s="1">
-        <v>9.674242</v>
+        <v>9.6742419999999996</v>
       </c>
       <c r="AG15" s="1">
-        <v>1229.110000</v>
+        <v>1229.1099999999999</v>
       </c>
       <c r="AH15" s="1">
-        <v>-86.379600</v>
+        <v>-86.379599999999996</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>34837.695349</v>
+        <v>34837.695349000001</v>
       </c>
       <c r="AK15" s="1">
-        <v>9.677138</v>
+        <v>9.6771379999999994</v>
       </c>
       <c r="AL15" s="1">
-        <v>1236.110000</v>
+        <v>1236.1099999999999</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.700700</v>
+        <v>-89.700699999999998</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>34848.767529</v>
+        <v>34848.767528999997</v>
       </c>
       <c r="AP15" s="1">
-        <v>9.680213</v>
+        <v>9.6802130000000002</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1243.960000</v>
+        <v>1243.96</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.669000</v>
+        <v>-101.669</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>34859.846171</v>
+        <v>34859.846170999997</v>
       </c>
       <c r="AU15" s="1">
-        <v>9.683291</v>
+        <v>9.6832910000000005</v>
       </c>
       <c r="AV15" s="1">
-        <v>1253.840000</v>
+        <v>1253.8399999999999</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.071000</v>
+        <v>-121.071</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>34870.876204</v>
       </c>
       <c r="AZ15" s="1">
-        <v>9.686355</v>
+        <v>9.6863550000000007</v>
       </c>
       <c r="BA15" s="1">
-        <v>1262.240000</v>
+        <v>1262.24</v>
       </c>
       <c r="BB15" s="1">
-        <v>-138.697000</v>
+        <v>-138.697</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>34881.930573</v>
+        <v>34881.930572999998</v>
       </c>
       <c r="BE15" s="1">
         <v>9.689425</v>
       </c>
       <c r="BF15" s="1">
-        <v>1302.080000</v>
+        <v>1302.08</v>
       </c>
       <c r="BG15" s="1">
-        <v>-221.396000</v>
+        <v>-221.39599999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>34893.381678</v>
+        <v>34893.381677999998</v>
       </c>
       <c r="BJ15" s="1">
-        <v>9.692606</v>
+        <v>9.6926059999999996</v>
       </c>
       <c r="BK15" s="1">
-        <v>1371.330000</v>
+        <v>1371.33</v>
       </c>
       <c r="BL15" s="1">
-        <v>-359.679000</v>
+        <v>-359.67899999999997</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>34904.153328</v>
       </c>
       <c r="BO15" s="1">
-        <v>9.695598</v>
+        <v>9.6955980000000004</v>
       </c>
       <c r="BP15" s="1">
-        <v>1485.540000</v>
+        <v>1485.54</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-585.592000</v>
+        <v>-585.59199999999998</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>34914.686375</v>
+        <v>34914.686374999997</v>
       </c>
       <c r="BT15" s="1">
-        <v>9.698524</v>
+        <v>9.6985240000000008</v>
       </c>
       <c r="BU15" s="1">
-        <v>1617.550000</v>
+        <v>1617.55</v>
       </c>
       <c r="BV15" s="1">
-        <v>-841.730000</v>
+        <v>-841.73</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>34925.575013</v>
+        <v>34925.575013000001</v>
       </c>
       <c r="BY15" s="1">
         <v>9.701549</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1770.980000</v>
+        <v>1770.98</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1120.030000</v>
+        <v>-1120.03</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>34938.055883</v>
+        <v>34938.055883000001</v>
       </c>
       <c r="CD15" s="1">
-        <v>9.705016</v>
+        <v>9.7050160000000005</v>
       </c>
       <c r="CE15" s="1">
-        <v>2194.350000</v>
+        <v>2194.35</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1798.650000</v>
+        <v>-1798.65</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>34763.579146</v>
+        <v>34763.579145999996</v>
       </c>
       <c r="B16" s="1">
-        <v>9.656550</v>
+        <v>9.6565499999999993</v>
       </c>
       <c r="C16" s="1">
-        <v>1152.870000</v>
+        <v>1152.8699999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-259.947000</v>
+        <v>-259.947</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>34774.014510</v>
+        <v>34774.014510000001</v>
       </c>
       <c r="G16" s="1">
-        <v>9.659448</v>
+        <v>9.6594479999999994</v>
       </c>
       <c r="H16" s="1">
-        <v>1174.860000</v>
+        <v>1174.8599999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-218.410000</v>
+        <v>-218.41</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>34785.191823</v>
+        <v>34785.191823000001</v>
       </c>
       <c r="L16" s="1">
-        <v>9.662553</v>
+        <v>9.6625530000000008</v>
       </c>
       <c r="M16" s="1">
-        <v>1202.010000</v>
+        <v>1202.01</v>
       </c>
       <c r="N16" s="1">
-        <v>-151.304000</v>
+        <v>-151.304</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>34796.086479</v>
+        <v>34796.086478999998</v>
       </c>
       <c r="Q16" s="1">
-        <v>9.665580</v>
+        <v>9.6655800000000003</v>
       </c>
       <c r="R16" s="1">
-        <v>1209.860000</v>
+        <v>1209.8599999999999</v>
       </c>
       <c r="S16" s="1">
-        <v>-129.214000</v>
+        <v>-129.214</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>34806.592209</v>
+        <v>34806.592209000002</v>
       </c>
       <c r="V16" s="1">
-        <v>9.668498</v>
+        <v>9.6684979999999996</v>
       </c>
       <c r="W16" s="1">
-        <v>1216.970000</v>
+        <v>1216.97</v>
       </c>
       <c r="X16" s="1">
-        <v>-108.176000</v>
+        <v>-108.176</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>34817.116819</v>
+        <v>34817.116819000003</v>
       </c>
       <c r="AA16" s="1">
-        <v>9.671421</v>
+        <v>9.6714210000000005</v>
       </c>
       <c r="AB16" s="1">
-        <v>1224.460000</v>
+        <v>1224.46</v>
       </c>
       <c r="AC16" s="1">
-        <v>-90.734200</v>
+        <v>-90.734200000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>34827.617659</v>
+        <v>34827.617659000003</v>
       </c>
       <c r="AF16" s="1">
-        <v>9.674338</v>
+        <v>9.6743380000000005</v>
       </c>
       <c r="AG16" s="1">
-        <v>1229.060000</v>
+        <v>1229.06</v>
       </c>
       <c r="AH16" s="1">
-        <v>-86.334400</v>
+        <v>-86.334400000000002</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>34838.349101</v>
       </c>
       <c r="AK16" s="1">
-        <v>9.677319</v>
+        <v>9.6773190000000007</v>
       </c>
       <c r="AL16" s="1">
-        <v>1236.110000</v>
+        <v>1236.1099999999999</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.671300</v>
+        <v>-89.671300000000002</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>34849.209494</v>
+        <v>34849.209494000002</v>
       </c>
       <c r="AP16" s="1">
-        <v>9.680336</v>
+        <v>9.6803360000000005</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1243.970000</v>
+        <v>1243.97</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.664000</v>
+        <v>-101.664</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>34860.268267</v>
+        <v>34860.268266999999</v>
       </c>
       <c r="AU16" s="1">
         <v>9.683408</v>
       </c>
       <c r="AV16" s="1">
-        <v>1253.840000</v>
+        <v>1253.8399999999999</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.103000</v>
+        <v>-121.10299999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>34871.264572</v>
       </c>
       <c r="AZ16" s="1">
-        <v>9.686462</v>
+        <v>9.6864620000000006</v>
       </c>
       <c r="BA16" s="1">
-        <v>1262.290000</v>
+        <v>1262.29</v>
       </c>
       <c r="BB16" s="1">
-        <v>-138.708000</v>
+        <v>-138.708</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>34882.294110</v>
+        <v>34882.294110000003</v>
       </c>
       <c r="BE16" s="1">
-        <v>9.689526</v>
+        <v>9.6895260000000007</v>
       </c>
       <c r="BF16" s="1">
-        <v>1302.080000</v>
+        <v>1302.08</v>
       </c>
       <c r="BG16" s="1">
-        <v>-221.388000</v>
+        <v>-221.38800000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>34893.961007</v>
+        <v>34893.961006999998</v>
       </c>
       <c r="BJ16" s="1">
-        <v>9.692767</v>
+        <v>9.6927669999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1371.350000</v>
+        <v>1371.35</v>
       </c>
       <c r="BL16" s="1">
-        <v>-359.642000</v>
+        <v>-359.642</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>34904.577377</v>
+        <v>34904.577377000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>9.695716</v>
+        <v>9.6957159999999991</v>
       </c>
       <c r="BP16" s="1">
-        <v>1485.570000</v>
+        <v>1485.57</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-585.650000</v>
+        <v>-585.65</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>34915.095539</v>
+        <v>34915.095539000002</v>
       </c>
       <c r="BT16" s="1">
-        <v>9.698638</v>
+        <v>9.6986380000000008</v>
       </c>
       <c r="BU16" s="1">
-        <v>1617.330000</v>
+        <v>1617.33</v>
       </c>
       <c r="BV16" s="1">
-        <v>-841.728000</v>
+        <v>-841.72799999999995</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>34926.020620</v>
+        <v>34926.020620000003</v>
       </c>
       <c r="BY16" s="1">
-        <v>9.701672</v>
+        <v>9.7016720000000003</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1771.030000</v>
+        <v>1771.03</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1119.900000</v>
+        <v>-1119.9000000000001</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>34938.575155</v>
+        <v>34938.575154999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>9.705160</v>
+        <v>9.7051599999999993</v>
       </c>
       <c r="CE16" s="1">
-        <v>2194.610000</v>
+        <v>2194.61</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1797.050000</v>
+        <v>-1797.05</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>34764.262137</v>
+        <v>34764.262136999998</v>
       </c>
       <c r="B17" s="1">
         <v>9.656739</v>
       </c>
       <c r="C17" s="1">
-        <v>1153.300000</v>
+        <v>1153.3</v>
       </c>
       <c r="D17" s="1">
-        <v>-260.336000</v>
+        <v>-260.33600000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>34774.703420</v>
+        <v>34774.703419999998</v>
       </c>
       <c r="G17" s="1">
-        <v>9.659640</v>
+        <v>9.6596399999999996</v>
       </c>
       <c r="H17" s="1">
-        <v>1174.800000</v>
+        <v>1174.8</v>
       </c>
       <c r="I17" s="1">
-        <v>-218.174000</v>
+        <v>-218.17400000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>34785.538061</v>
+        <v>34785.538060999999</v>
       </c>
       <c r="L17" s="1">
         <v>9.662649</v>
       </c>
       <c r="M17" s="1">
-        <v>1202.340000</v>
+        <v>1202.3399999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-151.953000</v>
+        <v>-151.953</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>34796.433647</v>
+        <v>34796.433646999998</v>
       </c>
       <c r="Q17" s="1">
-        <v>9.665676</v>
+        <v>9.6656759999999995</v>
       </c>
       <c r="R17" s="1">
-        <v>1209.850000</v>
+        <v>1209.8499999999999</v>
       </c>
       <c r="S17" s="1">
-        <v>-129.222000</v>
+        <v>-129.22200000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>34806.933952</v>
+        <v>34806.933951999999</v>
       </c>
       <c r="V17" s="1">
-        <v>9.668593</v>
+        <v>9.6685929999999995</v>
       </c>
       <c r="W17" s="1">
-        <v>1217.110000</v>
+        <v>1217.1099999999999</v>
       </c>
       <c r="X17" s="1">
-        <v>-108.243000</v>
+        <v>-108.24299999999999</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>34817.772035</v>
+        <v>34817.772035000002</v>
       </c>
       <c r="AA17" s="1">
-        <v>9.671603</v>
+        <v>9.6716029999999993</v>
       </c>
       <c r="AB17" s="1">
-        <v>1224.530000</v>
+        <v>1224.53</v>
       </c>
       <c r="AC17" s="1">
-        <v>-90.951300</v>
+        <v>-90.951300000000003</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>34828.304582</v>
+        <v>34828.304581999997</v>
       </c>
       <c r="AF17" s="1">
-        <v>9.674529</v>
+        <v>9.6745289999999997</v>
       </c>
       <c r="AG17" s="1">
-        <v>1229.090000</v>
+        <v>1229.0899999999999</v>
       </c>
       <c r="AH17" s="1">
-        <v>-86.353600</v>
+        <v>-86.3536</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>34838.741895</v>
+        <v>34838.741894999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>9.677428</v>
+        <v>9.6774280000000008</v>
       </c>
       <c r="AL17" s="1">
-        <v>1236.110000</v>
+        <v>1236.1099999999999</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.730400</v>
+        <v>-89.730400000000003</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>34849.571080</v>
+        <v>34849.571080000002</v>
       </c>
       <c r="AP17" s="1">
-        <v>9.680436</v>
+        <v>9.6804360000000003</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1243.960000</v>
+        <v>1243.96</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.651000</v>
+        <v>-101.651</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>34860.631339</v>
       </c>
       <c r="AU17" s="1">
-        <v>9.683509</v>
+        <v>9.6835090000000008</v>
       </c>
       <c r="AV17" s="1">
-        <v>1253.820000</v>
+        <v>1253.82</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.131000</v>
+        <v>-121.131</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>34871.625427</v>
+        <v>34871.625426999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>9.686563</v>
+        <v>9.6865629999999996</v>
       </c>
       <c r="BA17" s="1">
-        <v>1262.270000</v>
+        <v>1262.27</v>
       </c>
       <c r="BB17" s="1">
-        <v>-138.663000</v>
+        <v>-138.66300000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>34882.715747</v>
+        <v>34882.715747000002</v>
       </c>
       <c r="BE17" s="1">
-        <v>9.689643</v>
+        <v>9.6896430000000002</v>
       </c>
       <c r="BF17" s="1">
-        <v>1302.070000</v>
+        <v>1302.07</v>
       </c>
       <c r="BG17" s="1">
-        <v>-221.394000</v>
+        <v>-221.39400000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>34894.507597</v>
+        <v>34894.507597000003</v>
       </c>
       <c r="BJ17" s="1">
-        <v>9.692919</v>
+        <v>9.6929189999999998</v>
       </c>
       <c r="BK17" s="1">
-        <v>1371.330000</v>
+        <v>1371.33</v>
       </c>
       <c r="BL17" s="1">
-        <v>-359.657000</v>
+        <v>-359.65699999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>34904.973183</v>
+        <v>34904.973183000002</v>
       </c>
       <c r="BO17" s="1">
-        <v>9.695826</v>
+        <v>9.6958260000000003</v>
       </c>
       <c r="BP17" s="1">
-        <v>1485.540000</v>
+        <v>1485.54</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-585.646000</v>
+        <v>-585.64599999999996</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>34915.509698</v>
+        <v>34915.509698000002</v>
       </c>
       <c r="BT17" s="1">
         <v>9.698753</v>
       </c>
       <c r="BU17" s="1">
-        <v>1617.370000</v>
+        <v>1617.37</v>
       </c>
       <c r="BV17" s="1">
-        <v>-841.427000</v>
+        <v>-841.42700000000002</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>34926.476738</v>
+        <v>34926.476737999998</v>
       </c>
       <c r="BY17" s="1">
-        <v>9.701799</v>
+        <v>9.7017989999999994</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1770.960000</v>
+        <v>1770.96</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1120.100000</v>
+        <v>-1120.0999999999999</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>34939.091987</v>
       </c>
       <c r="CD17" s="1">
-        <v>9.705303</v>
+        <v>9.7053030000000007</v>
       </c>
       <c r="CE17" s="1">
-        <v>2192.740000</v>
+        <v>2192.7399999999998</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1796.830000</v>
+        <v>-1796.83</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>34764.605866</v>
+        <v>34764.605865999998</v>
       </c>
       <c r="B18" s="1">
-        <v>9.656835</v>
+        <v>9.6568349999999992</v>
       </c>
       <c r="C18" s="1">
-        <v>1153.090000</v>
+        <v>1153.0899999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>-260.286000</v>
+        <v>-260.286</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>34775.049130</v>
+        <v>34775.049129999999</v>
       </c>
       <c r="G18" s="1">
-        <v>9.659736</v>
+        <v>9.6597360000000005</v>
       </c>
       <c r="H18" s="1">
-        <v>1174.810000</v>
+        <v>1174.81</v>
       </c>
       <c r="I18" s="1">
-        <v>-217.926000</v>
+        <v>-217.92599999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>34785.888239</v>
       </c>
       <c r="L18" s="1">
-        <v>9.662747</v>
+        <v>9.6627469999999995</v>
       </c>
       <c r="M18" s="1">
-        <v>1201.750000</v>
+        <v>1201.75</v>
       </c>
       <c r="N18" s="1">
-        <v>-151.395000</v>
+        <v>-151.39500000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>34797.096798</v>
+        <v>34797.096797999999</v>
       </c>
       <c r="Q18" s="1">
-        <v>9.665860</v>
+        <v>9.6658600000000003</v>
       </c>
       <c r="R18" s="1">
-        <v>1209.860000</v>
+        <v>1209.8599999999999</v>
       </c>
       <c r="S18" s="1">
-        <v>-129.272000</v>
+        <v>-129.27199999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>34807.585697</v>
+        <v>34807.585697000002</v>
       </c>
       <c r="V18" s="1">
-        <v>9.668774</v>
+        <v>9.6687740000000009</v>
       </c>
       <c r="W18" s="1">
-        <v>1217.030000</v>
+        <v>1217.03</v>
       </c>
       <c r="X18" s="1">
-        <v>-108.227000</v>
+        <v>-108.227</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>34818.159411</v>
+        <v>34818.159411000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>9.671711</v>
+        <v>9.6717110000000002</v>
       </c>
       <c r="AB18" s="1">
-        <v>1224.580000</v>
+        <v>1224.58</v>
       </c>
       <c r="AC18" s="1">
-        <v>-90.913400</v>
+        <v>-90.913399999999996</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>34828.649301</v>
+        <v>34828.649300999998</v>
       </c>
       <c r="AF18" s="1">
-        <v>9.674625</v>
+        <v>9.6746250000000007</v>
       </c>
       <c r="AG18" s="1">
-        <v>1229.110000</v>
+        <v>1229.1099999999999</v>
       </c>
       <c r="AH18" s="1">
-        <v>-86.382800</v>
+        <v>-86.382800000000003</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>34839.092070</v>
+        <v>34839.092069999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>9.677526</v>
+        <v>9.6775260000000003</v>
       </c>
       <c r="AL18" s="1">
-        <v>1236.100000</v>
+        <v>1236.0999999999999</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.724700</v>
+        <v>-89.724699999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>34849.929192</v>
+        <v>34849.929192000003</v>
       </c>
       <c r="AP18" s="1">
         <v>9.680536</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1243.970000</v>
+        <v>1243.97</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.677000</v>
+        <v>-101.67700000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>34861.194794</v>
+        <v>34861.194794000003</v>
       </c>
       <c r="AU18" s="1">
-        <v>9.683665</v>
+        <v>9.6836649999999995</v>
       </c>
       <c r="AV18" s="1">
-        <v>1253.830000</v>
+        <v>1253.83</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.112000</v>
+        <v>-121.11199999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>34872.047795</v>
+        <v>34872.047794999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>9.686680</v>
+        <v>9.6866800000000008</v>
       </c>
       <c r="BA18" s="1">
-        <v>1262.280000</v>
+        <v>1262.28</v>
       </c>
       <c r="BB18" s="1">
-        <v>-138.690000</v>
+        <v>-138.69</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>34883.016316</v>
+        <v>34883.016316000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>9.689727</v>
+        <v>9.6897269999999995</v>
       </c>
       <c r="BF18" s="1">
-        <v>1302.070000</v>
+        <v>1302.07</v>
       </c>
       <c r="BG18" s="1">
-        <v>-221.374000</v>
+        <v>-221.374</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>34894.886540</v>
+        <v>34894.88654</v>
       </c>
       <c r="BJ18" s="1">
-        <v>9.693024</v>
+        <v>9.6930239999999994</v>
       </c>
       <c r="BK18" s="1">
-        <v>1371.300000</v>
+        <v>1371.3</v>
       </c>
       <c r="BL18" s="1">
-        <v>-359.703000</v>
+        <v>-359.70299999999997</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>34905.393791</v>
+        <v>34905.393791000002</v>
       </c>
       <c r="BO18" s="1">
-        <v>9.695943</v>
+        <v>9.6959429999999998</v>
       </c>
       <c r="BP18" s="1">
-        <v>1485.590000</v>
+        <v>1485.59</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-585.620000</v>
+        <v>-585.62</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>34915.922401</v>
+        <v>34915.922401000003</v>
       </c>
       <c r="BT18" s="1">
-        <v>9.698867</v>
+        <v>9.6988669999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1617.380000</v>
+        <v>1617.38</v>
       </c>
       <c r="BV18" s="1">
-        <v>-841.271000</v>
+        <v>-841.27099999999996</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>34926.927106</v>
+        <v>34926.927106000003</v>
       </c>
       <c r="BY18" s="1">
         <v>9.701924</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1771.160000</v>
+        <v>1771.16</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1120.010000</v>
+        <v>-1120.01</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>34939.611334</v>
+        <v>34939.611334000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>9.705448</v>
+        <v>9.7054480000000005</v>
       </c>
       <c r="CE18" s="1">
-        <v>2193.260000</v>
+        <v>2193.2600000000002</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1796.130000</v>
+        <v>-1796.13</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>34764.944138</v>
+        <v>34764.944137999999</v>
       </c>
       <c r="B19" s="1">
-        <v>9.656929</v>
+        <v>9.6569289999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>1153.160000</v>
+        <v>1153.1600000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-259.910000</v>
+        <v>-259.91000000000003</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>34775.398354</v>
+        <v>34775.398353999997</v>
       </c>
       <c r="G19" s="1">
-        <v>9.659833</v>
+        <v>9.6598330000000008</v>
       </c>
       <c r="H19" s="1">
-        <v>1174.690000</v>
+        <v>1174.69</v>
       </c>
       <c r="I19" s="1">
-        <v>-218.861000</v>
+        <v>-218.86099999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>34786.537964</v>
+        <v>34786.537964000003</v>
       </c>
       <c r="L19" s="1">
-        <v>9.662927</v>
+        <v>9.6629269999999998</v>
       </c>
       <c r="M19" s="1">
-        <v>1202.250000</v>
+        <v>1202.25</v>
       </c>
       <c r="N19" s="1">
-        <v>-151.526000</v>
+        <v>-151.52600000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>34797.478221</v>
+        <v>34797.478220999998</v>
       </c>
       <c r="Q19" s="1">
-        <v>9.665966</v>
+        <v>9.6659659999999992</v>
       </c>
       <c r="R19" s="1">
-        <v>1209.830000</v>
+        <v>1209.83</v>
       </c>
       <c r="S19" s="1">
-        <v>-129.238000</v>
+        <v>-129.238</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>34807.966128</v>
       </c>
       <c r="V19" s="1">
-        <v>9.668879</v>
+        <v>9.6688790000000004</v>
       </c>
       <c r="W19" s="1">
-        <v>1217.080000</v>
+        <v>1217.08</v>
       </c>
       <c r="X19" s="1">
-        <v>-108.288000</v>
+        <v>-108.288</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>34818.508593</v>
+        <v>34818.508592999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>9.671808</v>
+        <v>9.6718080000000004</v>
       </c>
       <c r="AB19" s="1">
-        <v>1224.660000</v>
+        <v>1224.6600000000001</v>
       </c>
       <c r="AC19" s="1">
-        <v>-90.924900</v>
+        <v>-90.924899999999994</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>34828.989589</v>
+        <v>34828.989588999997</v>
       </c>
       <c r="AF19" s="1">
-        <v>9.674719</v>
+        <v>9.6747189999999996</v>
       </c>
       <c r="AG19" s="1">
-        <v>1229.110000</v>
+        <v>1229.1099999999999</v>
       </c>
       <c r="AH19" s="1">
-        <v>-86.366100</v>
+        <v>-86.366100000000003</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>34839.440262</v>
+        <v>34839.440261999996</v>
       </c>
       <c r="AK19" s="1">
-        <v>9.677622</v>
+        <v>9.6776219999999995</v>
       </c>
       <c r="AL19" s="1">
-        <v>1236.130000</v>
+        <v>1236.1300000000001</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.749000</v>
+        <v>-89.748999999999995</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>34850.350759</v>
+        <v>34850.350759000001</v>
       </c>
       <c r="AP19" s="1">
-        <v>9.680653</v>
+        <v>9.6806529999999995</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1243.980000</v>
+        <v>1243.98</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.654000</v>
+        <v>-101.654</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>34861.362442</v>
+        <v>34861.362441999998</v>
       </c>
       <c r="AU19" s="1">
-        <v>9.683712</v>
+        <v>9.6837119999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1253.850000</v>
+        <v>1253.8499999999999</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.120000</v>
+        <v>-121.12</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>34872.340429</v>
+        <v>34872.340429000003</v>
       </c>
       <c r="AZ19" s="1">
-        <v>9.686761</v>
+        <v>9.6867610000000006</v>
       </c>
       <c r="BA19" s="1">
-        <v>1262.260000</v>
+        <v>1262.26</v>
       </c>
       <c r="BB19" s="1">
-        <v>-138.683000</v>
+        <v>-138.68299999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>34883.376379</v>
+        <v>34883.376379000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>9.689827</v>
+        <v>9.6898269999999993</v>
       </c>
       <c r="BF19" s="1">
-        <v>1302.050000</v>
+        <v>1302.05</v>
       </c>
       <c r="BG19" s="1">
-        <v>-221.401000</v>
+        <v>-221.40100000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>34895.257052</v>
+        <v>34895.257052000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>9.693127</v>
+        <v>9.6931270000000005</v>
       </c>
       <c r="BK19" s="1">
-        <v>1371.360000</v>
+        <v>1371.36</v>
       </c>
       <c r="BL19" s="1">
-        <v>-359.684000</v>
+        <v>-359.68400000000003</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>34905.790591</v>
+        <v>34905.790590999997</v>
       </c>
       <c r="BO19" s="1">
-        <v>9.696053</v>
+        <v>9.6960529999999991</v>
       </c>
       <c r="BP19" s="1">
-        <v>1485.570000</v>
+        <v>1485.57</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-585.623000</v>
+        <v>-585.62300000000005</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>34916.337522</v>
+        <v>34916.337522000002</v>
       </c>
       <c r="BT19" s="1">
-        <v>9.698983</v>
+        <v>9.6989830000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1617.440000</v>
+        <v>1617.44</v>
       </c>
       <c r="BV19" s="1">
-        <v>-841.071000</v>
+        <v>-841.07100000000003</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>34927.381442</v>
+        <v>34927.381441999998</v>
       </c>
       <c r="BY19" s="1">
-        <v>9.702050</v>
+        <v>9.7020499999999998</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1770.920000</v>
+        <v>1770.92</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1119.940000</v>
+        <v>-1119.94</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>34940.162353</v>
       </c>
       <c r="CD19" s="1">
-        <v>9.705601</v>
+        <v>9.7056009999999997</v>
       </c>
       <c r="CE19" s="1">
-        <v>2194.280000</v>
+        <v>2194.2800000000002</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1796.880000</v>
+        <v>-1796.88</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>34765.592409</v>
+        <v>34765.592408999997</v>
       </c>
       <c r="B20" s="1">
-        <v>9.657109</v>
+        <v>9.6571090000000002</v>
       </c>
       <c r="C20" s="1">
-        <v>1153.330000</v>
+        <v>1153.33</v>
       </c>
       <c r="D20" s="1">
-        <v>-259.930000</v>
+        <v>-259.93</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>34776.069939</v>
+        <v>34776.069939000001</v>
       </c>
       <c r="G20" s="1">
-        <v>9.660019</v>
+        <v>9.6600190000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>1174.850000</v>
+        <v>1174.8499999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-218.152000</v>
+        <v>-218.15199999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>34786.922399</v>
+        <v>34786.922399000003</v>
       </c>
       <c r="L20" s="1">
-        <v>9.663034</v>
+        <v>9.6630339999999997</v>
       </c>
       <c r="M20" s="1">
-        <v>1202.170000</v>
+        <v>1202.17</v>
       </c>
       <c r="N20" s="1">
-        <v>-151.325000</v>
+        <v>-151.32499999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>34797.828893</v>
+        <v>34797.828892999998</v>
       </c>
       <c r="Q20" s="1">
-        <v>9.666064</v>
+        <v>9.6660640000000004</v>
       </c>
       <c r="R20" s="1">
-        <v>1209.840000</v>
+        <v>1209.8399999999999</v>
       </c>
       <c r="S20" s="1">
-        <v>-129.206000</v>
+        <v>-129.20599999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>34808.309856</v>
       </c>
       <c r="V20" s="1">
-        <v>9.668975</v>
+        <v>9.6689749999999997</v>
       </c>
       <c r="W20" s="1">
-        <v>1217.100000</v>
+        <v>1217.0999999999999</v>
       </c>
       <c r="X20" s="1">
-        <v>-108.124000</v>
+        <v>-108.124</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>34818.856321</v>
+        <v>34818.856320999999</v>
       </c>
       <c r="AA20" s="1">
-        <v>9.671905</v>
+        <v>9.6719050000000006</v>
       </c>
       <c r="AB20" s="1">
-        <v>1224.510000</v>
+        <v>1224.51</v>
       </c>
       <c r="AC20" s="1">
-        <v>-90.858700</v>
+        <v>-90.858699999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>34829.405214</v>
+        <v>34829.405213999999</v>
       </c>
       <c r="AF20" s="1">
-        <v>9.674835</v>
+        <v>9.6748349999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>1229.110000</v>
+        <v>1229.1099999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-86.338600</v>
+        <v>-86.3386</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>34839.857893</v>
       </c>
       <c r="AK20" s="1">
-        <v>9.677738</v>
+        <v>9.6777379999999997</v>
       </c>
       <c r="AL20" s="1">
-        <v>1236.080000</v>
+        <v>1236.08</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.740800</v>
+        <v>-89.740799999999993</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>34850.647863</v>
+        <v>34850.647862999998</v>
       </c>
       <c r="AP20" s="1">
-        <v>9.680736</v>
+        <v>9.6807359999999996</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1243.970000</v>
+        <v>1243.97</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.657000</v>
+        <v>-101.657</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>34861.726341</v>
+        <v>34861.726341000001</v>
       </c>
       <c r="AU20" s="1">
-        <v>9.683813</v>
+        <v>9.6838130000000007</v>
       </c>
       <c r="AV20" s="1">
-        <v>1253.830000</v>
+        <v>1253.83</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.114000</v>
+        <v>-121.114</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>34872.695530</v>
+        <v>34872.695529999997</v>
       </c>
       <c r="AZ20" s="1">
-        <v>9.686860</v>
+        <v>9.6868599999999994</v>
       </c>
       <c r="BA20" s="1">
-        <v>1262.240000</v>
+        <v>1262.24</v>
       </c>
       <c r="BB20" s="1">
-        <v>-138.629000</v>
+        <v>-138.62899999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>34883.738955</v>
+        <v>34883.738955000001</v>
       </c>
       <c r="BE20" s="1">
-        <v>9.689927</v>
+        <v>9.6899270000000008</v>
       </c>
       <c r="BF20" s="1">
-        <v>1302.050000</v>
+        <v>1302.05</v>
       </c>
       <c r="BG20" s="1">
-        <v>-221.394000</v>
+        <v>-221.39400000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>34896.037293</v>
+        <v>34896.037293000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>9.693344</v>
+        <v>9.6933439999999997</v>
       </c>
       <c r="BK20" s="1">
-        <v>1371.320000</v>
+        <v>1371.32</v>
       </c>
       <c r="BL20" s="1">
-        <v>-359.662000</v>
+        <v>-359.66199999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>34906.210702</v>
+        <v>34906.210701999997</v>
       </c>
       <c r="BO20" s="1">
-        <v>9.696170</v>
+        <v>9.6961700000000004</v>
       </c>
       <c r="BP20" s="1">
-        <v>1485.530000</v>
+        <v>1485.53</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-585.671000</v>
+        <v>-585.67100000000005</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>34916.774000</v>
+        <v>34916.773999999998</v>
       </c>
       <c r="BT20" s="1">
-        <v>9.699104</v>
+        <v>9.6991040000000002</v>
       </c>
       <c r="BU20" s="1">
-        <v>1617.580000</v>
+        <v>1617.58</v>
       </c>
       <c r="BV20" s="1">
-        <v>-840.861000</v>
+        <v>-840.86099999999999</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>34927.829838</v>
+        <v>34927.829837999998</v>
       </c>
       <c r="BY20" s="1">
-        <v>9.702175</v>
+        <v>9.7021750000000004</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1771.050000</v>
+        <v>1771.05</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1119.920000</v>
+        <v>-1119.92</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>34940.691121</v>
+        <v>34940.691121000003</v>
       </c>
       <c r="CD20" s="1">
-        <v>9.705748</v>
+        <v>9.7057479999999998</v>
       </c>
       <c r="CE20" s="1">
-        <v>2192.350000</v>
+        <v>2192.35</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1796.690000</v>
+        <v>-1796.69</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>34765.970891</v>
+        <v>34765.970890999997</v>
       </c>
       <c r="B21" s="1">
-        <v>9.657214</v>
+        <v>9.6572139999999997</v>
       </c>
       <c r="C21" s="1">
-        <v>1153.150000</v>
+        <v>1153.1500000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-260.208000</v>
+        <v>-260.20800000000003</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>34776.430033</v>
+        <v>34776.430032999997</v>
       </c>
       <c r="G21" s="1">
-        <v>9.660119</v>
+        <v>9.6601189999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>1174.620000</v>
+        <v>1174.6199999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-218.150000</v>
+        <v>-218.15</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>34787.270060</v>
+        <v>34787.270060000003</v>
       </c>
       <c r="L21" s="1">
-        <v>9.663131</v>
+        <v>9.6631309999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>1201.970000</v>
+        <v>1201.97</v>
       </c>
       <c r="N21" s="1">
-        <v>-151.300000</v>
+        <v>-151.30000000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>34798.180556</v>
+        <v>34798.180555999999</v>
       </c>
       <c r="Q21" s="1">
-        <v>9.666161</v>
+        <v>9.6661610000000007</v>
       </c>
       <c r="R21" s="1">
-        <v>1209.740000</v>
+        <v>1209.74</v>
       </c>
       <c r="S21" s="1">
-        <v>-129.279000</v>
+        <v>-129.279</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>34808.653583</v>
+        <v>34808.653582999999</v>
       </c>
       <c r="V21" s="1">
-        <v>9.669070</v>
+        <v>9.6690699999999996</v>
       </c>
       <c r="W21" s="1">
-        <v>1217.060000</v>
+        <v>1217.06</v>
       </c>
       <c r="X21" s="1">
-        <v>-108.146000</v>
+        <v>-108.146</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>34819.286816</v>
       </c>
       <c r="AA21" s="1">
-        <v>9.672024</v>
+        <v>9.6720240000000004</v>
       </c>
       <c r="AB21" s="1">
-        <v>1224.550000</v>
+        <v>1224.55</v>
       </c>
       <c r="AC21" s="1">
-        <v>-90.862000</v>
+        <v>-90.861999999999995</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>34829.667090</v>
+        <v>34829.667090000003</v>
       </c>
       <c r="AF21" s="1">
-        <v>9.674908</v>
+        <v>9.6749080000000003</v>
       </c>
       <c r="AG21" s="1">
-        <v>1229.090000</v>
+        <v>1229.0899999999999</v>
       </c>
       <c r="AH21" s="1">
-        <v>-86.398300</v>
+        <v>-86.398300000000006</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>34840.148054</v>
+        <v>34840.148053999998</v>
       </c>
       <c r="AK21" s="1">
-        <v>9.677819</v>
+        <v>9.6778189999999995</v>
       </c>
       <c r="AL21" s="1">
-        <v>1236.110000</v>
+        <v>1236.1099999999999</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.699900</v>
+        <v>-89.6999</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>34851.008950</v>
+        <v>34851.008950000003</v>
       </c>
       <c r="AP21" s="1">
-        <v>9.680836</v>
+        <v>9.6808359999999993</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1243.980000</v>
+        <v>1243.98</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.668000</v>
+        <v>-101.66800000000001</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>34862.092059</v>
+        <v>34862.092059000002</v>
       </c>
       <c r="AU21" s="1">
-        <v>9.683914</v>
+        <v>9.6839139999999997</v>
       </c>
       <c r="AV21" s="1">
-        <v>1253.890000</v>
+        <v>1253.8900000000001</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.130000</v>
+        <v>-121.13</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>34873.056617</v>
+        <v>34873.056617000002</v>
       </c>
       <c r="AZ21" s="1">
-        <v>9.686960</v>
+        <v>9.6869599999999991</v>
       </c>
       <c r="BA21" s="1">
-        <v>1262.280000</v>
+        <v>1262.28</v>
       </c>
       <c r="BB21" s="1">
-        <v>-138.676000</v>
+        <v>-138.67599999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>34884.459644</v>
+        <v>34884.459644000002</v>
       </c>
       <c r="BE21" s="1">
-        <v>9.690128</v>
+        <v>9.6901279999999996</v>
       </c>
       <c r="BF21" s="1">
-        <v>1302.080000</v>
+        <v>1302.08</v>
       </c>
       <c r="BG21" s="1">
-        <v>-221.428000</v>
+        <v>-221.428</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>34896.412730</v>
+        <v>34896.412729999996</v>
       </c>
       <c r="BJ21" s="1">
-        <v>9.693448</v>
+        <v>9.6934480000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1371.340000</v>
+        <v>1371.34</v>
       </c>
       <c r="BL21" s="1">
-        <v>-359.677000</v>
+        <v>-359.67700000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>34906.607996</v>
+        <v>34906.607995999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>9.696280</v>
+        <v>9.6962799999999998</v>
       </c>
       <c r="BP21" s="1">
-        <v>1485.560000</v>
+        <v>1485.56</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-585.677000</v>
+        <v>-585.67700000000002</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>34917.204732</v>
+        <v>34917.204731999998</v>
       </c>
       <c r="BT21" s="1">
-        <v>9.699224</v>
+        <v>9.6992239999999992</v>
       </c>
       <c r="BU21" s="1">
-        <v>1617.720000</v>
+        <v>1617.72</v>
       </c>
       <c r="BV21" s="1">
-        <v>-840.901000</v>
+        <v>-840.90099999999995</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>34928.600608</v>
+        <v>34928.600608000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>9.702389</v>
+        <v>9.7023890000000002</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1770.990000</v>
+        <v>1770.99</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1120.030000</v>
+        <v>-1120.03</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>34941.519154</v>
+        <v>34941.519154000001</v>
       </c>
       <c r="CD21" s="1">
         <v>9.705978</v>
       </c>
       <c r="CE21" s="1">
-        <v>2191.830000</v>
+        <v>2191.83</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1798.610000</v>
+        <v>-1798.61</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>34766.315584</v>
+        <v>34766.315584000004</v>
       </c>
       <c r="B22" s="1">
-        <v>9.657310</v>
+        <v>9.6573100000000007</v>
       </c>
       <c r="C22" s="1">
-        <v>1153.150000</v>
+        <v>1153.1500000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-259.948000</v>
+        <v>-259.94799999999998</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>34776.779705</v>
+        <v>34776.779705000001</v>
       </c>
       <c r="G22" s="1">
-        <v>9.660217</v>
+        <v>9.6602169999999994</v>
       </c>
       <c r="H22" s="1">
-        <v>1174.870000</v>
+        <v>1174.8699999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-218.128000</v>
+        <v>-218.12799999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>34787.616412</v>
+        <v>34787.616412000003</v>
       </c>
       <c r="L22" s="1">
-        <v>9.663227</v>
+        <v>9.6632269999999991</v>
       </c>
       <c r="M22" s="1">
-        <v>1202.160000</v>
+        <v>1202.1600000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-151.493000</v>
+        <v>-151.49299999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>34798.605628</v>
+        <v>34798.605627999998</v>
       </c>
       <c r="Q22" s="1">
-        <v>9.666279</v>
+        <v>9.6662789999999994</v>
       </c>
       <c r="R22" s="1">
-        <v>1209.870000</v>
+        <v>1209.8699999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>-129.188000</v>
+        <v>-129.18799999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>34809.084606</v>
+        <v>34809.084605999997</v>
       </c>
       <c r="V22" s="1">
-        <v>9.669190</v>
+        <v>9.6691900000000004</v>
       </c>
       <c r="W22" s="1">
-        <v>1217.080000</v>
+        <v>1217.08</v>
       </c>
       <c r="X22" s="1">
-        <v>-108.179000</v>
+        <v>-108.179</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>34819.564080</v>
+        <v>34819.564079999996</v>
       </c>
       <c r="AA22" s="1">
-        <v>9.672101</v>
+        <v>9.6721009999999996</v>
       </c>
       <c r="AB22" s="1">
-        <v>1224.480000</v>
+        <v>1224.48</v>
       </c>
       <c r="AC22" s="1">
-        <v>-90.893000</v>
+        <v>-90.893000000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>34830.027682</v>
       </c>
       <c r="AF22" s="1">
-        <v>9.675008</v>
+        <v>9.6750080000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>1229.110000</v>
+        <v>1229.1099999999999</v>
       </c>
       <c r="AH22" s="1">
-        <v>-86.366800</v>
+        <v>-86.366799999999998</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>34840.497744</v>
       </c>
       <c r="AK22" s="1">
-        <v>9.677916</v>
+        <v>9.6779159999999997</v>
       </c>
       <c r="AL22" s="1">
-        <v>1236.090000</v>
+        <v>1236.0899999999999</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.662500</v>
+        <v>-89.662499999999994</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>34851.372551</v>
       </c>
       <c r="AP22" s="1">
-        <v>9.680937</v>
+        <v>9.6809370000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1243.980000</v>
+        <v>1243.98</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.675000</v>
+        <v>-101.675</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>34862.820214</v>
+        <v>34862.820213999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>9.684117</v>
+        <v>9.6841170000000005</v>
       </c>
       <c r="AV22" s="1">
-        <v>1253.890000</v>
+        <v>1253.8900000000001</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.083000</v>
+        <v>-121.083</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>34873.780777</v>
       </c>
       <c r="AZ22" s="1">
-        <v>9.687161</v>
+        <v>9.6871609999999997</v>
       </c>
       <c r="BA22" s="1">
-        <v>1262.290000</v>
+        <v>1262.29</v>
       </c>
       <c r="BB22" s="1">
-        <v>-138.655000</v>
+        <v>-138.655</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>34884.818747</v>
+        <v>34884.818746999998</v>
       </c>
       <c r="BE22" s="1">
-        <v>9.690227</v>
+        <v>9.6902270000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1302.060000</v>
+        <v>1302.06</v>
       </c>
       <c r="BG22" s="1">
-        <v>-221.428000</v>
+        <v>-221.428</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>34896.790020</v>
+        <v>34896.79002</v>
       </c>
       <c r="BJ22" s="1">
-        <v>9.693553</v>
+        <v>9.6935529999999996</v>
       </c>
       <c r="BK22" s="1">
-        <v>1371.350000</v>
+        <v>1371.35</v>
       </c>
       <c r="BL22" s="1">
-        <v>-359.694000</v>
+        <v>-359.69400000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>34907.029597</v>
+        <v>34907.029597000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>9.696397</v>
+        <v>9.6963969999999993</v>
       </c>
       <c r="BP22" s="1">
-        <v>1485.520000</v>
+        <v>1485.52</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-585.623000</v>
+        <v>-585.62300000000005</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>34917.914302</v>
+        <v>34917.914301999997</v>
       </c>
       <c r="BT22" s="1">
-        <v>9.699421</v>
+        <v>9.6994209999999992</v>
       </c>
       <c r="BU22" s="1">
-        <v>1617.920000</v>
+        <v>1617.92</v>
       </c>
       <c r="BV22" s="1">
-        <v>-840.833000</v>
+        <v>-840.83299999999997</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>34928.734064</v>
+        <v>34928.734063999997</v>
       </c>
       <c r="BY22" s="1">
-        <v>9.702426</v>
+        <v>9.7024260000000009</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1770.990000</v>
+        <v>1770.99</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1120.040000</v>
+        <v>-1120.04</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>34941.732192</v>
+        <v>34941.732192000003</v>
       </c>
       <c r="CD22" s="1">
-        <v>9.706037</v>
+        <v>9.7060370000000002</v>
       </c>
       <c r="CE22" s="1">
-        <v>2194.310000</v>
+        <v>2194.31</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1799.240000</v>
+        <v>-1799.24</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>34766.657350</v>
+        <v>34766.657350000001</v>
       </c>
       <c r="B23" s="1">
-        <v>9.657405</v>
+        <v>9.6574050000000007</v>
       </c>
       <c r="C23" s="1">
-        <v>1153.580000</v>
+        <v>1153.58</v>
       </c>
       <c r="D23" s="1">
-        <v>-260.431000</v>
+        <v>-260.43099999999998</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>34777.420008</v>
+        <v>34777.420008000001</v>
       </c>
       <c r="G23" s="1">
-        <v>9.660394</v>
+        <v>9.6603940000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>1174.500000</v>
+        <v>1174.5</v>
       </c>
       <c r="I23" s="1">
-        <v>-218.754000</v>
+        <v>-218.75399999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>34788.028939</v>
+        <v>34788.028939000003</v>
       </c>
       <c r="L23" s="1">
-        <v>9.663341</v>
+        <v>9.6633410000000008</v>
       </c>
       <c r="M23" s="1">
-        <v>1202.190000</v>
+        <v>1202.19</v>
       </c>
       <c r="N23" s="1">
-        <v>-151.592000</v>
+        <v>-151.59200000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>34798.878923</v>
+        <v>34798.878922999997</v>
       </c>
       <c r="Q23" s="1">
-        <v>9.666355</v>
+        <v>9.6663549999999994</v>
       </c>
       <c r="R23" s="1">
-        <v>1209.870000</v>
+        <v>1209.8699999999999</v>
       </c>
       <c r="S23" s="1">
-        <v>-129.227000</v>
+        <v>-129.227</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>34809.366335</v>
+        <v>34809.366334999999</v>
       </c>
       <c r="V23" s="1">
-        <v>9.669268</v>
+        <v>9.6692680000000006</v>
       </c>
       <c r="W23" s="1">
-        <v>1217.250000</v>
+        <v>1217.25</v>
       </c>
       <c r="X23" s="1">
-        <v>-108.111000</v>
+        <v>-108.111</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>34819.913326</v>
+        <v>34819.913326000002</v>
       </c>
       <c r="AA23" s="1">
-        <v>9.672198</v>
+        <v>9.6721979999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>1224.560000</v>
+        <v>1224.56</v>
       </c>
       <c r="AC23" s="1">
-        <v>-90.856900</v>
+        <v>-90.856899999999996</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>34830.366946</v>
+        <v>34830.366946000002</v>
       </c>
       <c r="AF23" s="1">
-        <v>9.675102</v>
+        <v>9.6751020000000008</v>
       </c>
       <c r="AG23" s="1">
-        <v>1229.080000</v>
+        <v>1229.08</v>
       </c>
       <c r="AH23" s="1">
-        <v>-86.366200</v>
+        <v>-86.366200000000006</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>34840.846421</v>
+        <v>34840.846421000002</v>
       </c>
       <c r="AK23" s="1">
         <v>9.678013</v>
       </c>
       <c r="AL23" s="1">
-        <v>1236.130000</v>
+        <v>1236.1300000000001</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.676300</v>
+        <v>-89.676299999999998</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>34852.099170</v>
+        <v>34852.099170000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>9.681139</v>
+        <v>9.6811389999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1243.970000</v>
+        <v>1243.97</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.688000</v>
+        <v>-101.688</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>34863.184742</v>
+        <v>34863.184741999998</v>
       </c>
       <c r="AU23" s="1">
-        <v>9.684218</v>
+        <v>9.6842179999999995</v>
       </c>
       <c r="AV23" s="1">
-        <v>1253.870000</v>
+        <v>1253.8699999999999</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.078000</v>
+        <v>-121.078</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>34874.157736</v>
+        <v>34874.157736000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>9.687266</v>
+        <v>9.6872659999999993</v>
       </c>
       <c r="BA23" s="1">
-        <v>1262.290000</v>
+        <v>1262.29</v>
       </c>
       <c r="BB23" s="1">
-        <v>-138.662000</v>
+        <v>-138.66200000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>34885.179833</v>
+        <v>34885.179833000002</v>
       </c>
       <c r="BE23" s="1">
-        <v>9.690328</v>
+        <v>9.6903279999999992</v>
       </c>
       <c r="BF23" s="1">
-        <v>1302.310000</v>
+        <v>1302.31</v>
       </c>
       <c r="BG23" s="1">
-        <v>-221.442000</v>
+        <v>-221.44200000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>34897.473007</v>
+        <v>34897.473007000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>9.693743</v>
+        <v>9.6937429999999996</v>
       </c>
       <c r="BK23" s="1">
-        <v>1371.290000</v>
+        <v>1371.29</v>
       </c>
       <c r="BL23" s="1">
-        <v>-359.699000</v>
+        <v>-359.69900000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>34907.733947</v>
+        <v>34907.733947000001</v>
       </c>
       <c r="BO23" s="1">
         <v>9.696593</v>
       </c>
       <c r="BP23" s="1">
-        <v>1485.570000</v>
+        <v>1485.57</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-585.576000</v>
+        <v>-585.57600000000002</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>34918.046239</v>
+        <v>34918.046239000003</v>
       </c>
       <c r="BT23" s="1">
-        <v>9.699457</v>
+        <v>9.6994570000000007</v>
       </c>
       <c r="BU23" s="1">
-        <v>1618.070000</v>
+        <v>1618.07</v>
       </c>
       <c r="BV23" s="1">
-        <v>-840.839000</v>
+        <v>-840.83900000000006</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>34929.156652</v>
+        <v>34929.156651999998</v>
       </c>
       <c r="BY23" s="1">
-        <v>9.702544</v>
+        <v>9.7025439999999996</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1770.950000</v>
+        <v>1770.95</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1120.060000</v>
+        <v>-1120.06</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>34942.245585</v>
+        <v>34942.245584999997</v>
       </c>
       <c r="CD23" s="1">
-        <v>9.706179</v>
+        <v>9.7061790000000006</v>
       </c>
       <c r="CE23" s="1">
-        <v>2193.340000</v>
+        <v>2193.34</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1798.720000</v>
+        <v>-1798.72</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>34767.064533</v>
+        <v>34767.064532999997</v>
       </c>
       <c r="B24" s="1">
-        <v>9.657518</v>
+        <v>9.6575179999999996</v>
       </c>
       <c r="C24" s="1">
-        <v>1153.210000</v>
+        <v>1153.21</v>
       </c>
       <c r="D24" s="1">
-        <v>-260.292000</v>
+        <v>-260.29199999999997</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>34777.811351</v>
+        <v>34777.811350999997</v>
       </c>
       <c r="G24" s="1">
-        <v>9.660503</v>
+        <v>9.6605030000000003</v>
       </c>
       <c r="H24" s="1">
-        <v>1174.790000</v>
+        <v>1174.79</v>
       </c>
       <c r="I24" s="1">
-        <v>-218.170000</v>
+        <v>-218.17</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>34788.315129</v>
+        <v>34788.315129000002</v>
       </c>
       <c r="L24" s="1">
-        <v>9.663421</v>
+        <v>9.6634209999999996</v>
       </c>
       <c r="M24" s="1">
-        <v>1202.380000</v>
+        <v>1202.3800000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-151.702000</v>
+        <v>-151.702</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>34799.226619</v>
+        <v>34799.226619000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>9.666452</v>
+        <v>9.6664519999999996</v>
       </c>
       <c r="R24" s="1">
-        <v>1209.870000</v>
+        <v>1209.8699999999999</v>
       </c>
       <c r="S24" s="1">
-        <v>-129.302000</v>
+        <v>-129.30199999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>34809.708573</v>
+        <v>34809.708573000004</v>
       </c>
       <c r="V24" s="1">
-        <v>9.669363</v>
+        <v>9.6693630000000006</v>
       </c>
       <c r="W24" s="1">
-        <v>1217.090000</v>
+        <v>1217.0899999999999</v>
       </c>
       <c r="X24" s="1">
-        <v>-108.111000</v>
+        <v>-108.111</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>34820.262945</v>
+        <v>34820.262945000002</v>
       </c>
       <c r="AA24" s="1">
-        <v>9.672295</v>
+        <v>9.6722950000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1224.460000</v>
+        <v>1224.46</v>
       </c>
       <c r="AC24" s="1">
-        <v>-90.915300</v>
+        <v>-90.915300000000002</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>34831.052914</v>
       </c>
       <c r="AF24" s="1">
-        <v>9.675292</v>
+        <v>9.6752920000000007</v>
       </c>
       <c r="AG24" s="1">
-        <v>1229.090000</v>
+        <v>1229.0899999999999</v>
       </c>
       <c r="AH24" s="1">
-        <v>-86.366000</v>
+        <v>-86.366</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>34841.539827</v>
+        <v>34841.539827000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>9.678206</v>
+        <v>9.6782059999999994</v>
       </c>
       <c r="AL24" s="1">
-        <v>1236.100000</v>
+        <v>1236.0999999999999</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.656100</v>
+        <v>-89.656099999999995</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>34852.476118</v>
+        <v>34852.476117999999</v>
       </c>
       <c r="AP24" s="1">
-        <v>9.681243</v>
+        <v>9.6812430000000003</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1243.980000</v>
+        <v>1243.98</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.688000</v>
+        <v>-101.688</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>34863.550326</v>
+        <v>34863.550325999997</v>
       </c>
       <c r="AU24" s="1">
-        <v>9.684320</v>
+        <v>9.6843199999999996</v>
       </c>
       <c r="AV24" s="1">
-        <v>1253.880000</v>
+        <v>1253.8800000000001</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.076000</v>
+        <v>-121.07599999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>34874.536221</v>
+        <v>34874.536221000002</v>
       </c>
       <c r="AZ24" s="1">
-        <v>9.687371</v>
+        <v>9.6873710000000006</v>
       </c>
       <c r="BA24" s="1">
-        <v>1262.280000</v>
+        <v>1262.28</v>
       </c>
       <c r="BB24" s="1">
-        <v>-138.672000</v>
+        <v>-138.672</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>34886.079609</v>
       </c>
       <c r="BE24" s="1">
-        <v>9.690578</v>
+        <v>9.6905780000000004</v>
       </c>
       <c r="BF24" s="1">
-        <v>1302.070000</v>
+        <v>1302.07</v>
       </c>
       <c r="BG24" s="1">
-        <v>-221.405000</v>
+        <v>-221.405</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>34897.580810</v>
+        <v>34897.580809999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>9.693772</v>
+        <v>9.6937719999999992</v>
       </c>
       <c r="BK24" s="1">
-        <v>1371.320000</v>
+        <v>1371.32</v>
       </c>
       <c r="BL24" s="1">
-        <v>-359.708000</v>
+        <v>-359.70800000000003</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>34907.846507</v>
+        <v>34907.846507000002</v>
       </c>
       <c r="BO24" s="1">
-        <v>9.696624</v>
+        <v>9.6966239999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1485.570000</v>
+        <v>1485.57</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-585.678000</v>
+        <v>-585.678</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>34918.485233</v>
+        <v>34918.485232999999</v>
       </c>
       <c r="BT24" s="1">
         <v>9.699579</v>
       </c>
       <c r="BU24" s="1">
-        <v>1618.260000</v>
+        <v>1618.26</v>
       </c>
       <c r="BV24" s="1">
-        <v>-840.863000</v>
+        <v>-840.86300000000006</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>34929.577726</v>
+        <v>34929.577726000003</v>
       </c>
       <c r="BY24" s="1">
-        <v>9.702660</v>
+        <v>9.7026599999999998</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1770.980000</v>
+        <v>1770.98</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1119.860000</v>
+        <v>-1119.8599999999999</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>34942.797628</v>
       </c>
       <c r="CD24" s="1">
-        <v>9.706333</v>
+        <v>9.7063330000000008</v>
       </c>
       <c r="CE24" s="1">
-        <v>2191.970000</v>
+        <v>2191.9699999999998</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1797.990000</v>
+        <v>-1797.99</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>34767.358165</v>
+        <v>34767.358164999998</v>
       </c>
       <c r="B25" s="1">
-        <v>9.657599</v>
+        <v>9.6575989999999994</v>
       </c>
       <c r="C25" s="1">
-        <v>1153.170000</v>
+        <v>1153.17</v>
       </c>
       <c r="D25" s="1">
-        <v>-260.168000</v>
+        <v>-260.16800000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>34778.159047</v>
+        <v>34778.159047000001</v>
       </c>
       <c r="G25" s="1">
-        <v>9.660600</v>
+        <v>9.6606000000000005</v>
       </c>
       <c r="H25" s="1">
-        <v>1175.490000</v>
+        <v>1175.49</v>
       </c>
       <c r="I25" s="1">
-        <v>-218.240000</v>
+        <v>-218.24</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>34788.663816</v>
       </c>
       <c r="L25" s="1">
-        <v>9.663518</v>
+        <v>9.6635179999999998</v>
       </c>
       <c r="M25" s="1">
-        <v>1202.030000</v>
+        <v>1202.03</v>
       </c>
       <c r="N25" s="1">
-        <v>-151.677000</v>
+        <v>-151.67699999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>34799.575340</v>
+        <v>34799.575340000003</v>
       </c>
       <c r="Q25" s="1">
-        <v>9.666549</v>
+        <v>9.6665489999999998</v>
       </c>
       <c r="R25" s="1">
-        <v>1209.750000</v>
+        <v>1209.75</v>
       </c>
       <c r="S25" s="1">
-        <v>-129.262000</v>
+        <v>-129.262</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>34810.043374</v>
+        <v>34810.043374000001</v>
       </c>
       <c r="V25" s="1">
-        <v>9.669456</v>
+        <v>9.6694560000000003</v>
       </c>
       <c r="W25" s="1">
-        <v>1217.040000</v>
+        <v>1217.04</v>
       </c>
       <c r="X25" s="1">
-        <v>-108.187000</v>
+        <v>-108.187</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>34820.958863</v>
       </c>
       <c r="AA25" s="1">
-        <v>9.672489</v>
+        <v>9.6724890000000006</v>
       </c>
       <c r="AB25" s="1">
-        <v>1224.520000</v>
+        <v>1224.52</v>
       </c>
       <c r="AC25" s="1">
-        <v>-90.936000</v>
+        <v>-90.936000000000007</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>34831.397632</v>
       </c>
       <c r="AF25" s="1">
-        <v>9.675388</v>
+        <v>9.6753879999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>1229.090000</v>
+        <v>1229.0899999999999</v>
       </c>
       <c r="AH25" s="1">
-        <v>-86.364600</v>
+        <v>-86.364599999999996</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>34841.891986</v>
+        <v>34841.891986000002</v>
       </c>
       <c r="AK25" s="1">
-        <v>9.678303</v>
+        <v>9.6783029999999997</v>
       </c>
       <c r="AL25" s="1">
-        <v>1236.100000</v>
+        <v>1236.0999999999999</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.677900</v>
+        <v>-89.677899999999994</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>34852.836709</v>
+        <v>34852.836709000003</v>
       </c>
       <c r="AP25" s="1">
-        <v>9.681344</v>
+        <v>9.6813439999999993</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1243.970000</v>
+        <v>1243.97</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.702000</v>
+        <v>-101.702</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>34864.223861</v>
+        <v>34864.223860999999</v>
       </c>
       <c r="AU25" s="1">
         <v>9.684507</v>
       </c>
       <c r="AV25" s="1">
-        <v>1253.870000</v>
+        <v>1253.8699999999999</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.087000</v>
+        <v>-121.087</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>34875.210246</v>
+        <v>34875.210246000002</v>
       </c>
       <c r="AZ25" s="1">
-        <v>9.687558</v>
+        <v>9.6875579999999992</v>
       </c>
       <c r="BA25" s="1">
-        <v>1262.310000</v>
+        <v>1262.31</v>
       </c>
       <c r="BB25" s="1">
-        <v>-138.691000</v>
+        <v>-138.691</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>34886.527960</v>
+        <v>34886.527959999999</v>
       </c>
       <c r="BE25" s="1">
-        <v>9.690702</v>
+        <v>9.6907019999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1302.070000</v>
+        <v>1302.07</v>
       </c>
       <c r="BG25" s="1">
-        <v>-221.407000</v>
+        <v>-221.40700000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>34897.941401</v>
+        <v>34897.941400999996</v>
       </c>
       <c r="BJ25" s="1">
         <v>9.693873</v>
       </c>
       <c r="BK25" s="1">
-        <v>1371.330000</v>
+        <v>1371.33</v>
       </c>
       <c r="BL25" s="1">
-        <v>-359.659000</v>
+        <v>-359.65899999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>34908.272123</v>
+        <v>34908.272123000002</v>
       </c>
       <c r="BO25" s="1">
-        <v>9.696742</v>
+        <v>9.6967420000000004</v>
       </c>
       <c r="BP25" s="1">
-        <v>1485.560000</v>
+        <v>1485.56</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-585.648000</v>
+        <v>-585.64800000000002</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>34918.912252</v>
+        <v>34918.912252000002</v>
       </c>
       <c r="BT25" s="1">
-        <v>9.699698</v>
+        <v>9.6996979999999997</v>
       </c>
       <c r="BU25" s="1">
-        <v>1618.360000</v>
+        <v>1618.36</v>
       </c>
       <c r="BV25" s="1">
-        <v>-841.118000</v>
+        <v>-841.11800000000005</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>34930.032559</v>
+        <v>34930.032558999999</v>
       </c>
       <c r="BY25" s="1">
-        <v>9.702787</v>
+        <v>9.7027870000000007</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1771.140000</v>
+        <v>1771.14</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1120.140000</v>
+        <v>-1120.1400000000001</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>34943.329812</v>
+        <v>34943.329812000004</v>
       </c>
       <c r="CD25" s="1">
-        <v>9.706481</v>
+        <v>9.7064810000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>2194.130000</v>
+        <v>2194.13</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1798.590000</v>
+        <v>-1798.59</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>34767.698452</v>
+        <v>34767.698451999997</v>
       </c>
       <c r="B26" s="1">
-        <v>9.657694</v>
+        <v>9.6576939999999993</v>
       </c>
       <c r="C26" s="1">
-        <v>1153.400000</v>
+        <v>1153.4000000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-260.672000</v>
+        <v>-260.67200000000003</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>34778.501324</v>
+        <v>34778.501323999997</v>
       </c>
       <c r="G26" s="1">
-        <v>9.660695</v>
+        <v>9.6606950000000005</v>
       </c>
       <c r="H26" s="1">
-        <v>1174.420000</v>
+        <v>1174.42</v>
       </c>
       <c r="I26" s="1">
-        <v>-218.539000</v>
+        <v>-218.53899999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>34789.008536</v>
+        <v>34789.008536000001</v>
       </c>
       <c r="L26" s="1">
-        <v>9.663613</v>
+        <v>9.6636129999999998</v>
       </c>
       <c r="M26" s="1">
-        <v>1202.000000</v>
+        <v>1202</v>
       </c>
       <c r="N26" s="1">
-        <v>-151.361000</v>
+        <v>-151.36099999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>34800.271690</v>
+        <v>34800.271690000001</v>
       </c>
       <c r="Q26" s="1">
-        <v>9.666742</v>
+        <v>9.6667419999999993</v>
       </c>
       <c r="R26" s="1">
-        <v>1209.830000</v>
+        <v>1209.83</v>
       </c>
       <c r="S26" s="1">
-        <v>-129.199000</v>
+        <v>-129.19900000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>34810.752171</v>
       </c>
       <c r="V26" s="1">
-        <v>9.669653</v>
+        <v>9.6696530000000003</v>
       </c>
       <c r="W26" s="1">
-        <v>1217.050000</v>
+        <v>1217.05</v>
       </c>
       <c r="X26" s="1">
-        <v>-108.136000</v>
+        <v>-108.136</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>34821.310991</v>
+        <v>34821.310990999998</v>
       </c>
       <c r="AA26" s="1">
-        <v>9.672586</v>
+        <v>9.6725860000000008</v>
       </c>
       <c r="AB26" s="1">
-        <v>1224.570000</v>
+        <v>1224.57</v>
       </c>
       <c r="AC26" s="1">
-        <v>-90.924500</v>
+        <v>-90.924499999999995</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>34831.741360</v>
+        <v>34831.74136</v>
       </c>
       <c r="AF26" s="1">
-        <v>9.675484</v>
+        <v>9.6754840000000009</v>
       </c>
       <c r="AG26" s="1">
-        <v>1229.060000</v>
+        <v>1229.06</v>
       </c>
       <c r="AH26" s="1">
-        <v>-86.367700</v>
+        <v>-86.367699999999999</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>34842.239682</v>
+        <v>34842.239681999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>9.678400</v>
+        <v>9.6783999999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>1236.130000</v>
+        <v>1236.1300000000001</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.703000</v>
+        <v>-89.703000000000003</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>34853.504324</v>
+        <v>34853.504324000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>9.681529</v>
+        <v>9.6815289999999994</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1243.970000</v>
+        <v>1243.97</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.726000</v>
+        <v>-101.726</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>34864.643975</v>
+        <v>34864.643974999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>9.684623</v>
+        <v>9.6846230000000002</v>
       </c>
       <c r="AV26" s="1">
-        <v>1253.870000</v>
+        <v>1253.8699999999999</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.054000</v>
+        <v>-121.054</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>34875.616966</v>
+        <v>34875.616966000001</v>
       </c>
       <c r="AZ26" s="1">
-        <v>9.687671</v>
+        <v>9.6876709999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1262.270000</v>
+        <v>1262.27</v>
       </c>
       <c r="BB26" s="1">
-        <v>-138.699000</v>
+        <v>-138.69900000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>34886.888091</v>
+        <v>34886.888091000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>9.690802</v>
+        <v>9.6908019999999997</v>
       </c>
       <c r="BF26" s="1">
-        <v>1302.090000</v>
+        <v>1302.0899999999999</v>
       </c>
       <c r="BG26" s="1">
-        <v>-221.390000</v>
+        <v>-221.39</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>34898.316872</v>
+        <v>34898.316872000003</v>
       </c>
       <c r="BJ26" s="1">
-        <v>9.693977</v>
+        <v>9.6939770000000003</v>
       </c>
       <c r="BK26" s="1">
-        <v>1371.340000</v>
+        <v>1371.34</v>
       </c>
       <c r="BL26" s="1">
-        <v>-359.683000</v>
+        <v>-359.68299999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>34908.669370</v>
+        <v>34908.669370000003</v>
       </c>
       <c r="BO26" s="1">
-        <v>9.696853</v>
+        <v>9.6968530000000008</v>
       </c>
       <c r="BP26" s="1">
-        <v>1485.600000</v>
+        <v>1485.6</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-585.621000</v>
+        <v>-585.62099999999998</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>34919.340300</v>
+        <v>34919.340300000003</v>
       </c>
       <c r="BT26" s="1">
-        <v>9.699817</v>
+        <v>9.6998169999999995</v>
       </c>
       <c r="BU26" s="1">
-        <v>1618.520000</v>
+        <v>1618.52</v>
       </c>
       <c r="BV26" s="1">
-        <v>-841.321000</v>
+        <v>-841.32100000000003</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>34930.479949</v>
       </c>
       <c r="BY26" s="1">
-        <v>9.702911</v>
+        <v>9.7029110000000003</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1771.070000</v>
+        <v>1771.07</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1120.080000</v>
+        <v>-1120.08</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>34943.847629</v>
+        <v>34943.847629000004</v>
       </c>
       <c r="CD26" s="1">
-        <v>9.706624</v>
+        <v>9.7066239999999997</v>
       </c>
       <c r="CE26" s="1">
-        <v>2194.500000</v>
+        <v>2194.5</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1796.800000</v>
+        <v>-1796.8</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>